--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -1822,7 +1822,7 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
@@ -1922,7 +1922,7 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
@@ -1972,7 +1972,7 @@
       <c r="G25" s="22" t="n"/>
       <c r="H25" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I25" s="16" t="inlineStr">
@@ -2022,7 +2022,7 @@
       <c r="G26" s="22" t="n"/>
       <c r="H26" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
         </is>
       </c>
       <c r="I26" s="16" t="inlineStr">
@@ -2072,7 +2072,7 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
@@ -2117,7 +2117,7 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
@@ -7048,7 +7048,7 @@
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -8499,7 +8499,7 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
@@ -8544,7 +8544,7 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
+  <dataValidations count="4">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -11016,7 +11016,13 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="4">
+  <dataValidations count="6">
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>

--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -1177,7 +1177,7 @@
       </c>
       <c r="I9" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J9" s="23" t="n"/>
@@ -1277,7 +1277,7 @@
       </c>
       <c r="I11" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/secure-aad-users-with-mfa/</t>
+          <t>https://docs.microsoft.com/learn/modules/secure-aad-users-with-mfa/</t>
         </is>
       </c>
       <c r="J11" s="23" t="n"/>
@@ -1327,7 +1327,7 @@
       </c>
       <c r="I12" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/azure-administrator-manage-identities-governance/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-identities-governance/</t>
         </is>
       </c>
       <c r="J12" s="23" t="n"/>
@@ -1422,7 +1422,7 @@
       <c r="G14" s="22" t="n"/>
       <c r="H14" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory-b2c/user-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/security-planning#identify-microsoft-accounts-in-administrative-roles-that-need-to-be-switched-to-work-or-school-accounts</t>
         </is>
       </c>
       <c r="I14" s="16" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="I15" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/manage-identity-and-access/</t>
+          <t>https://docs.microsoft.com/learn/paths/manage-identity-and-access/</t>
         </is>
       </c>
       <c r="J15" s="23" t="n"/>
@@ -1577,7 +1577,7 @@
       </c>
       <c r="I17" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-your-cloud-data/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-your-cloud-data/</t>
         </is>
       </c>
       <c r="J17" s="23" t="n"/>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="I19" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/modules/implement-hybrid-identity-windows-server/</t>
+          <t>https://docs.microsoft.com/learn/modules/implement-hybrid-identity-windows-server/</t>
         </is>
       </c>
       <c r="J19" s="23" t="n"/>
@@ -1727,7 +1727,7 @@
       </c>
       <c r="I20" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-windows-server-iaas-virtual-machine-identity/</t>
         </is>
       </c>
       <c r="J20" s="23" t="n"/>
@@ -1777,7 +1777,7 @@
       </c>
       <c r="I21" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J21" s="23" t="n"/>
@@ -1795,17 +1795,17 @@
     <row r="22" ht="16.5" customHeight="1" s="13">
       <c r="A22" s="22" t="inlineStr">
         <is>
-          <t>Management Group and Subscriptions</t>
+          <t>Identity and Access</t>
         </is>
       </c>
       <c r="B22" s="22" t="inlineStr">
         <is>
-          <t>Subscriptions</t>
+          <t>Identity</t>
         </is>
       </c>
       <c r="C22" s="22" t="inlineStr">
         <is>
-          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
+          <t>Avoid using on-premises synced accounts for Azure AD role assignments.</t>
         </is>
       </c>
       <c r="D22" s="22" t="n"/>
@@ -1822,19 +1822,19 @@
       <c r="G22" s="22" t="n"/>
       <c r="H22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
+          <t>https://docs.microsoft.com/azure/active-directory/roles/best-practices</t>
         </is>
       </c>
       <c r="I22" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-identity-security-strategy/</t>
         </is>
       </c>
       <c r="J22" s="23" t="n"/>
       <c r="K22" s="23" t="n"/>
       <c r="L22" s="26" t="inlineStr">
         <is>
-          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
+          <t>35037e68-9349-4c15-b371-228514f4cdff</t>
         </is>
       </c>
       <c r="M22" s="26" t="n"/>
@@ -1855,7 +1855,7 @@
       </c>
       <c r="C23" s="22" t="inlineStr">
         <is>
-          <t>Enforce or appended resource tags through Azure Policy</t>
+          <t>Enforce reasonably flat management group hierarchy with no more than three to four levels, ideally</t>
         </is>
       </c>
       <c r="D23" s="22" t="n"/>
@@ -1872,19 +1872,19 @@
       <c r="G23" s="22" t="n"/>
       <c r="H23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups</t>
         </is>
       </c>
       <c r="I23" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J23" s="23" t="n"/>
       <c r="K23" s="23" t="n"/>
       <c r="L23" s="26" t="inlineStr">
         <is>
-          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
+          <t>2df27ee4-12e7-4f98-9f63-04722dd69c5b</t>
         </is>
       </c>
       <c r="M23" s="26" t="n"/>
@@ -1905,7 +1905,7 @@
       </c>
       <c r="C24" s="22" t="inlineStr">
         <is>
-          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
+          <t>Enforce or appended resource tags through Azure Policy</t>
         </is>
       </c>
       <c r="D24" s="22" t="n"/>
@@ -1922,19 +1922,19 @@
       <c r="G24" s="22" t="n"/>
       <c r="H24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/decision-guides/resource-tagging/?toc=/azure/azure-resource-manager/management/toc.json</t>
         </is>
       </c>
       <c r="I24" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J24" s="23" t="n"/>
       <c r="K24" s="23" t="n"/>
       <c r="L24" s="26" t="inlineStr">
         <is>
-          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
+          <t>5c2622f5-4b69-4bad-93aa-d5e8c68e1d76</t>
         </is>
       </c>
       <c r="M24" s="26" t="n"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="C25" s="22" t="inlineStr">
         <is>
-          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
+          <t>Enforce a sandbox management group to allow users to immediately experiment with Azure</t>
         </is>
       </c>
       <c r="D25" s="22" t="n"/>
@@ -1984,7 +1984,7 @@
       <c r="K25" s="23" t="n"/>
       <c r="L25" s="26" t="inlineStr">
         <is>
-          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
+          <t>667313b4-f566-44b5-b984-a859c773e7d2</t>
         </is>
       </c>
       <c r="M25" s="26" t="n"/>
@@ -2005,7 +2005,7 @@
       </c>
       <c r="C26" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
+          <t>Enforce a platform management group under the root management group to support common platform policy and Azure role assignment</t>
         </is>
       </c>
       <c r="D26" s="22" t="n"/>
@@ -2034,7 +2034,7 @@
       <c r="K26" s="23" t="n"/>
       <c r="L26" s="26" t="inlineStr">
         <is>
-          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
+          <t>61623a76-5a91-47e1-b348-ef254c27d42e</t>
         </is>
       </c>
       <c r="M26" s="26" t="n"/>
@@ -2055,7 +2055,7 @@
       </c>
       <c r="C27" s="22" t="inlineStr">
         <is>
-          <t>Enforce no subscriptions are placed under the root management group</t>
+          <t>Enforce a dedicated connectivity subscription in the Platform management group to host an Azure Virtual WAN hub, private Domain Name System (DNS), ExpressRoute circuit, and other networking resources.</t>
         </is>
       </c>
       <c r="D27" s="22" t="n"/>
@@ -2072,14 +2072,19 @@
       <c r="G27" s="22" t="n"/>
       <c r="H27" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-group-recommendations</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J27" s="23" t="n"/>
       <c r="K27" s="23" t="n"/>
       <c r="L27" s="26" t="inlineStr">
         <is>
-          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
+          <t>8bbac757-1559-4ab9-853e-8908ae28c84c</t>
         </is>
       </c>
       <c r="M27" s="26" t="n"/>
@@ -2100,7 +2105,7 @@
       </c>
       <c r="C28" s="22" t="inlineStr">
         <is>
-          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
+          <t>Enforce no subscriptions are placed under the root management group</t>
         </is>
       </c>
       <c r="D28" s="22" t="n"/>
@@ -2117,14 +2122,14 @@
       <c r="G28" s="22" t="n"/>
       <c r="H28" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---default-management-group</t>
         </is>
       </c>
       <c r="J28" s="23" t="n"/>
       <c r="K28" s="23" t="n"/>
       <c r="L28" s="26" t="inlineStr">
         <is>
-          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
+          <t>33b6b780-8b9f-4e5c-9104-9d403a923c34</t>
         </is>
       </c>
       <c r="M28" s="26" t="n"/>
@@ -2145,7 +2150,7 @@
       </c>
       <c r="C29" s="22" t="inlineStr">
         <is>
-          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
+          <t>Enforce that only privileged users can operate management groups in the tenant by enabling Azure RBAC authorization in the management group hierarchy settings</t>
         </is>
       </c>
       <c r="D29" s="22" t="n"/>
@@ -2162,14 +2167,14 @@
       <c r="G29" s="22" t="n"/>
       <c r="H29" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/how-to/protect-resource-hierarchy#setting---require-authorization</t>
         </is>
       </c>
       <c r="J29" s="23" t="n"/>
       <c r="K29" s="23" t="n"/>
       <c r="L29" s="26" t="inlineStr">
         <is>
-          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
+          <t>74d00018-ac6a-49e0-8e6a-83de5de32c19</t>
         </is>
       </c>
       <c r="M29" s="26" t="n"/>
@@ -2190,13 +2195,13 @@
       </c>
       <c r="C30" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
+          <t>Enforce management groups under the root-level management group to represent the types of workloads, based on their security, compliance, connectivity, and feature needs.</t>
         </is>
       </c>
       <c r="D30" s="22" t="n"/>
       <c r="E30" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -2214,7 +2219,7 @@
       <c r="K30" s="23" t="n"/>
       <c r="L30" s="26" t="inlineStr">
         <is>
-          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
+          <t>92481607-d5d1-4e4e-9146-58d3558fd772</t>
         </is>
       </c>
       <c r="M30" s="26" t="n"/>
@@ -2235,13 +2240,13 @@
       </c>
       <c r="C31" s="22" t="inlineStr">
         <is>
-          <t>Enusre that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
+          <t>Enforce a process to make resource owners aware of their roles and responsibilities, access review, budget review, policy compliance and remediate when necessary.</t>
         </is>
       </c>
       <c r="D31" s="22" t="n"/>
       <c r="E31" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -2252,14 +2257,14 @@
       <c r="G31" s="22" t="n"/>
       <c r="H31" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="J31" s="23" t="n"/>
       <c r="K31" s="23" t="n"/>
       <c r="L31" s="26" t="inlineStr">
         <is>
-          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
+          <t>49b82111-2df2-47ee-912e-7f983f630472</t>
         </is>
       </c>
       <c r="M31" s="26" t="n"/>
@@ -2280,13 +2285,13 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Enforce the use of reserved instances to prioritize reserved capacity in required regions. Then the workload will have the required capacity even when there's a high demand for that resource in a specific region.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
       <c r="E32" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
@@ -2297,19 +2302,15 @@
       <c r="G32" s="22" t="n"/>
       <c r="H32" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
-        </is>
-      </c>
-      <c r="I32" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/improve-reliability-modern-operations/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+        </is>
+      </c>
+      <c r="I32" s="16" t="n"/>
       <c r="J32" s="23" t="n"/>
       <c r="K32" s="23" t="n"/>
       <c r="L32" s="26" t="inlineStr">
         <is>
-          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
+          <t>2dd69c5b-5c26-422f-94b6-9bad33aad5e8</t>
         </is>
       </c>
       <c r="M32" s="26" t="n"/>
@@ -2330,7 +2331,7 @@
       </c>
       <c r="C33" s="22" t="inlineStr">
         <is>
-          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
+          <t>Use Reserved Instances where appropriate to optimize cost and ensure available capacity in target regions. Enforce the use of purchased Reserved Instance VM SKUs via Azure Policy.</t>
         </is>
       </c>
       <c r="D33" s="22" t="n"/>
@@ -2347,19 +2348,19 @@
       <c r="G33" s="22" t="n"/>
       <c r="H33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/reservations/save-compute-costs-reservations</t>
         </is>
       </c>
       <c r="I33" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
+          <t>https://docs.microsoft.com/learn/paths/improve-reliability-modern-operations/</t>
         </is>
       </c>
       <c r="J33" s="23" t="n"/>
       <c r="K33" s="24" t="n"/>
       <c r="L33" s="26" t="inlineStr">
         <is>
-          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
+          <t>c68e1d76-6673-413b-9f56-64b5e984a859</t>
         </is>
       </c>
       <c r="M33" s="26" t="n"/>
@@ -2380,13 +2381,13 @@
       </c>
       <c r="C34" s="22" t="inlineStr">
         <is>
-          <t>Ensure required services and features are available within the chosen deployment regions</t>
+          <t>Enforce a dashboard, workbook, or manual process to monitor used capacity levels</t>
         </is>
       </c>
       <c r="D34" s="22" t="n"/>
       <c r="E34" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -2397,19 +2398,19 @@
       <c r="G34" s="22" t="n"/>
       <c r="H34" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/scalability/design-capacity</t>
         </is>
       </c>
       <c r="I34" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
+          <t>https://docs.microsoft.com/learn/paths/monitor-usage-performance-availability-resources-azure-monitor/</t>
         </is>
       </c>
       <c r="J34" s="23" t="n"/>
       <c r="K34" s="23" t="n"/>
       <c r="L34" s="26" t="inlineStr">
         <is>
-          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
+          <t>c773e7d2-6162-43a7-95a9-17e1f348ef25</t>
         </is>
       </c>
       <c r="M34" s="26" t="n"/>
@@ -2430,13 +2431,13 @@
       </c>
       <c r="C35" s="22" t="inlineStr">
         <is>
-          <t>Enforce a process for cost management</t>
+          <t>Ensure required services and features are available within the chosen deployment regions</t>
         </is>
       </c>
       <c r="D35" s="22" t="n"/>
       <c r="E35" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
@@ -2447,19 +2448,19 @@
       <c r="G35" s="22" t="n"/>
       <c r="H35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
+          <t>https://azure.microsoft.com/global-infrastructure/services/</t>
         </is>
       </c>
       <c r="I35" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/control-spending-manage-bills/</t>
+          <t>https://docs.microsoft.com/learn/modules/azure-architecture-fundamentals/</t>
         </is>
       </c>
       <c r="J35" s="23" t="n"/>
       <c r="K35" s="23" t="n"/>
       <c r="L35" s="26" t="inlineStr">
         <is>
-          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
+          <t>4c27d42e-8bba-4c75-9155-9ab9153e8908</t>
         </is>
       </c>
       <c r="M35" s="26" t="n"/>
@@ -2480,13 +2481,13 @@
       </c>
       <c r="C36" s="22" t="inlineStr">
         <is>
-          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
+          <t>Enforce a process for cost management</t>
         </is>
       </c>
       <c r="D36" s="22" t="n"/>
       <c r="E36" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
@@ -2497,19 +2498,19 @@
       <c r="G36" s="22" t="n"/>
       <c r="H36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
+          <t>https://docs.microsoft.com/azure/cost-management-billing/cost-management-billing-overview</t>
         </is>
       </c>
       <c r="I36" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
+          <t>https://docs.microsoft.com/learn/paths/control-spending-manage-bills/</t>
         </is>
       </c>
       <c r="J36" s="23" t="n"/>
       <c r="K36" s="23" t="n"/>
       <c r="L36" s="26" t="inlineStr">
         <is>
-          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
+          <t>ae28c84c-33b6-4b78-88b9-fe5c41049d40</t>
         </is>
       </c>
       <c r="M36" s="26" t="n"/>
@@ -2530,7 +2531,7 @@
       </c>
       <c r="C37" s="22" t="inlineStr">
         <is>
-          <t>Ensure tags are used for billing and cost management</t>
+          <t>If AD on Windows Server, establish a dedicated identity subscription in the Platform management group to host Windows Server Active Directory domain controllers</t>
         </is>
       </c>
       <c r="D37" s="22" t="n"/>
@@ -2547,19 +2548,19 @@
       <c r="G37" s="22" t="n"/>
       <c r="H37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
+          <t>https://docs.microsoft.com/azure/governance/management-groups/overview</t>
         </is>
       </c>
       <c r="I37" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/enterprise-scale-architecture/</t>
         </is>
       </c>
       <c r="J37" s="23" t="n"/>
       <c r="K37" s="23" t="n"/>
       <c r="L37" s="26" t="inlineStr">
         <is>
-          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
+          <t>3a923c34-74d0-4001-aac6-a9e01e6a83de</t>
         </is>
       </c>
       <c r="M37" s="26" t="n"/>
@@ -2570,17 +2571,17 @@
     <row r="38" ht="16.5" customHeight="1" s="13">
       <c r="A38" s="22" t="inlineStr">
         <is>
-          <t>Network Topology and Connectivity</t>
+          <t>Management Group and Subscriptions</t>
         </is>
       </c>
       <c r="B38" s="22" t="inlineStr">
         <is>
-          <t>IP plan</t>
+          <t>Subscriptions</t>
         </is>
       </c>
       <c r="C38" s="22" t="inlineStr">
         <is>
-          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
+          <t>Ensure tags are used for billing and cost management</t>
         </is>
       </c>
       <c r="D38" s="22" t="n"/>
@@ -2597,19 +2598,19 @@
       <c r="G38" s="22" t="n"/>
       <c r="H38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/track-costs</t>
         </is>
       </c>
       <c r="I38" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J38" s="23" t="n"/>
       <c r="K38" s="23" t="n"/>
       <c r="L38" s="26" t="inlineStr">
         <is>
-          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
+          <t>5de32c19-9248-4160-9d5d-1e4e614658d3</t>
         </is>
       </c>
       <c r="M38" s="26" t="n"/>
@@ -2630,7 +2631,7 @@
       </c>
       <c r="C39" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
+          <t>Ensure no overlapping IP address spaces across Azure regions and on-premises locations</t>
         </is>
       </c>
       <c r="D39" s="22" t="n"/>
@@ -2652,14 +2653,14 @@
       </c>
       <c r="I39" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J39" s="23" t="n"/>
       <c r="K39" s="23" t="n"/>
       <c r="L39" s="26" t="inlineStr">
         <is>
-          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
+          <t>558fd772-49b8-4211-82df-27ee412e7f98</t>
         </is>
       </c>
       <c r="M39" s="26" t="n"/>
@@ -2680,7 +2681,7 @@
       </c>
       <c r="C40" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
+          <t>Ensure to use IP addresses from the address allocation for private internets (RFC 1918).</t>
         </is>
       </c>
       <c r="D40" s="22" t="n"/>
@@ -2702,14 +2703,14 @@
       </c>
       <c r="I40" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J40" s="23" t="n"/>
       <c r="K40" s="23" t="n"/>
       <c r="L40" s="26" t="inlineStr">
         <is>
-          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
+          <t>3f630472-2dd6-49c5-a5c2-622f54b69bad</t>
         </is>
       </c>
       <c r="M40" s="26" t="n"/>
@@ -2730,7 +2731,7 @@
       </c>
       <c r="C41" s="22" t="inlineStr">
         <is>
-          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
+          <t xml:space="preserve">Ensure that IP address space isn't wasted, don't create unnecessarily large virtual networks (for example /16) </t>
         </is>
       </c>
       <c r="D41" s="22" t="n"/>
@@ -2752,14 +2753,14 @@
       </c>
       <c r="I41" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J41" s="23" t="n"/>
       <c r="K41" s="23" t="n"/>
       <c r="L41" s="26" t="inlineStr">
         <is>
-          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
+          <t>33aad5e8-c68e-41d7-9667-313b4f5664b5</t>
         </is>
       </c>
       <c r="M41" s="26" t="n"/>
@@ -2780,7 +2781,7 @@
       </c>
       <c r="C42" s="22" t="inlineStr">
         <is>
-          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
+          <t>Ensure no public IP address range (CIDR block) for VNETs, especially if not owned by your organization</t>
         </is>
       </c>
       <c r="D42" s="22" t="n"/>
@@ -2797,19 +2798,19 @@
       <c r="G42" s="22" t="n"/>
       <c r="H42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-ip-addressing</t>
         </is>
       </c>
       <c r="I42" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J42" s="23" t="n"/>
       <c r="K42" s="23" t="n"/>
       <c r="L42" s="26" t="inlineStr">
         <is>
-          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
+          <t>e984a859-c773-4e7d-8616-23a765a917e1</t>
         </is>
       </c>
       <c r="M42" s="26" t="n"/>
@@ -2830,7 +2831,7 @@
       </c>
       <c r="C43" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
+          <t>Avoid using overlapping IP address ranges for production and DR sites.</t>
         </is>
       </c>
       <c r="D43" s="22" t="n"/>
@@ -2847,19 +2848,19 @@
       <c r="G43" s="22" t="n"/>
       <c r="H43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/concepts-on-premises-to-azure-networking#retain-ip-addresses</t>
         </is>
       </c>
       <c r="I43" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J43" s="23" t="n"/>
       <c r="K43" s="24" t="n"/>
       <c r="L43" s="26" t="inlineStr">
         <is>
-          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
+          <t>f348ef25-4c27-4d42-b8bb-ac7571559ab9</t>
         </is>
       </c>
       <c r="M43" s="26" t="n"/>
@@ -2880,7 +2881,7 @@
       </c>
       <c r="C44" s="22" t="inlineStr">
         <is>
-          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
+          <t>For environments where name resolution in Azure is all that's required, use Azure Private DNS for resolution. Create a delegated zone for name resolution (such as 'azure.contoso.com').</t>
         </is>
       </c>
       <c r="D44" s="22" t="n"/>
@@ -2902,14 +2903,14 @@
       </c>
       <c r="I44" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J44" s="23" t="n"/>
       <c r="K44" s="23" t="n"/>
       <c r="L44" s="26" t="inlineStr">
         <is>
-          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
+          <t>153e8908-ae28-4c84-a33b-6b7808b9fe5c</t>
         </is>
       </c>
       <c r="M44" s="26" t="n"/>
@@ -2930,7 +2931,7 @@
       </c>
       <c r="C45" s="22" t="inlineStr">
         <is>
-          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
+          <t>For environments where name resolution across Azure and on-premises is required, use existing DNS infrastructure (for example, Active Directory integrated DNS) deployed onto at least two virtual machines (VMs). Configure DNS settings in virtual networks to use those DNS servers.</t>
         </is>
       </c>
       <c r="D45" s="22" t="n"/>
@@ -2948,13 +2949,18 @@
       <c r="H45" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J45" s="23" t="n"/>
       <c r="K45" s="23" t="n"/>
       <c r="L45" s="26" t="inlineStr">
         <is>
-          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
+          <t>41049d40-3a92-43c3-974d-00018ac6a9e0</t>
         </is>
       </c>
       <c r="M45" s="26" t="n"/>
@@ -2975,7 +2981,7 @@
       </c>
       <c r="C46" s="22" t="inlineStr">
         <is>
-          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
+          <t>Special workloads that require and deploy their own DNS (such as Red Hat OpenShift) should use their preferred DNS solution.</t>
         </is>
       </c>
       <c r="D46" s="22" t="n"/>
@@ -2992,19 +2998,15 @@
       <c r="G46" s="22" t="n"/>
       <c r="H46" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
-        </is>
-      </c>
-      <c r="I46" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/az-104-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-name-resolution-for-vms-and-role-instances</t>
+        </is>
+      </c>
+      <c r="I46" s="16" t="n"/>
       <c r="J46" s="23" t="n"/>
       <c r="K46" s="23" t="n"/>
       <c r="L46" s="26" t="inlineStr">
         <is>
-          <t>614658d3-558f-4d77-849b-821112df27ee</t>
+          <t>1e6a83de-5de3-42c1-a924-81607d5d1e4e</t>
         </is>
       </c>
       <c r="M46" s="26" t="n"/>
@@ -3020,12 +3022,12 @@
       </c>
       <c r="B47" s="22" t="inlineStr">
         <is>
-          <t>Virtual WAN</t>
+          <t>IP plan</t>
         </is>
       </c>
       <c r="C47" s="22" t="inlineStr">
         <is>
-          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
+          <t>Enable auto-registration for Azure DNS to automatically manage the lifecycle of the DNS records for the virtual machines deployed within a virtual network.</t>
         </is>
       </c>
       <c r="D47" s="22" t="n"/>
@@ -3042,19 +3044,19 @@
       <c r="G47" s="22" t="n"/>
       <c r="H47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+          <t>https://docs.microsoft.com/azure/dns/private-dns-autoregistration</t>
         </is>
       </c>
       <c r="I47" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
+          <t>https://docs.microsoft.com/learn/paths/az-104-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J47" s="23" t="n"/>
       <c r="K47" s="23" t="n"/>
       <c r="L47" s="26" t="inlineStr">
         <is>
-          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
+          <t>614658d3-558f-4d77-849b-821112df27ee</t>
         </is>
       </c>
       <c r="M47" s="26" t="n"/>
@@ -3075,7 +3077,7 @@
       </c>
       <c r="C48" s="22" t="inlineStr">
         <is>
-          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
+          <t>Consider Virtual WAN for simplified Azure networking management, and make sure your scenario is explicitly described in the list of Virtual WAN routing designs</t>
         </is>
       </c>
       <c r="D48" s="22" t="n"/>
@@ -3092,14 +3094,19 @@
       <c r="G48" s="22" t="n"/>
       <c r="H48" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/scenario-any-to-any</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/introduction-azure-virtual-wan/</t>
         </is>
       </c>
       <c r="J48" s="23" t="n"/>
       <c r="K48" s="23" t="n"/>
       <c r="L48" s="26" t="inlineStr">
         <is>
-          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
+          <t>412e7f98-3f63-4047-82dd-69c5b5c2622f</t>
         </is>
       </c>
       <c r="M48" s="26" t="n"/>
@@ -3120,7 +3127,7 @@
       </c>
       <c r="C49" s="22" t="inlineStr">
         <is>
-          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
+          <t>Use a Virtual WAN hub per Azure region to connect multiple landing zones together across Azure regions via a common global Azure Virtual WAN.</t>
         </is>
       </c>
       <c r="D49" s="22" t="n"/>
@@ -3144,7 +3151,7 @@
       <c r="K49" s="23" t="n"/>
       <c r="L49" s="26" t="inlineStr">
         <is>
-          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
+          <t>54b69bad-33aa-4d5e-ac68-e1d76667313b</t>
         </is>
       </c>
       <c r="M49" s="26" t="n"/>
@@ -3165,7 +3172,7 @@
       </c>
       <c r="C50" s="22" t="inlineStr">
         <is>
-          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
+          <t>Use Virtual Hub Routing features to further segment traffic between VNets and branches.</t>
         </is>
       </c>
       <c r="D50" s="22" t="n"/>
@@ -3185,16 +3192,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I50" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
-        </is>
-      </c>
+      <c r="I50" s="16" t="n"/>
       <c r="J50" s="23" t="n"/>
       <c r="K50" s="23" t="n"/>
       <c r="L50" s="26" t="inlineStr">
         <is>
-          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
+          <t>4f5664b5-e984-4a85-ac77-3e7d261623a7</t>
         </is>
       </c>
       <c r="M50" s="26" t="n"/>
@@ -3215,7 +3218,7 @@
       </c>
       <c r="C51" s="22" t="inlineStr">
         <is>
-          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
+          <t>Connect Virtual WAN hubs to on-premises datacenters by using ExpressRoute</t>
         </is>
       </c>
       <c r="D51" s="22" t="n"/>
@@ -3237,14 +3240,14 @@
       </c>
       <c r="I51" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-expressroute-virtual-wan/</t>
         </is>
       </c>
       <c r="J51" s="23" t="n"/>
       <c r="K51" s="23" t="n"/>
       <c r="L51" s="26" t="inlineStr">
         <is>
-          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
+          <t>65a917e1-f348-4ef2-94c2-7d42e8bbac75</t>
         </is>
       </c>
       <c r="M51" s="26" t="n"/>
@@ -3265,7 +3268,7 @@
       </c>
       <c r="C52" s="22" t="inlineStr">
         <is>
-          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
+          <t>Connect branches and remote locations to the nearest Virtual WAN hub via Site-to-Site VPN, or enable branch connectivity to Virtual WAN via an SD-WAN partner solution.</t>
         </is>
       </c>
       <c r="D52" s="22" t="n"/>
@@ -3294,7 +3297,7 @@
       <c r="K52" s="23" t="n"/>
       <c r="L52" s="26" t="inlineStr">
         <is>
-          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
+          <t>71559ab9-153e-4890-aae2-8c84c33b6b78</t>
         </is>
       </c>
       <c r="M52" s="26" t="n"/>
@@ -3315,7 +3318,7 @@
       </c>
       <c r="C53" s="22" t="inlineStr">
         <is>
-          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
+          <t>Connect users to the Virtual WAN hub via a Point-to-Site VPN.</t>
         </is>
       </c>
       <c r="D53" s="22" t="n"/>
@@ -3333,13 +3336,18 @@
       <c r="H53" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-hybrid-networking/</t>
         </is>
       </c>
       <c r="J53" s="23" t="n"/>
       <c r="K53" s="23" t="n"/>
       <c r="L53" s="26" t="inlineStr">
         <is>
-          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
+          <t>08b9fe5c-4104-49d4-83a9-23c3474d0001</t>
         </is>
       </c>
       <c r="M53" s="26" t="n"/>
@@ -3360,7 +3368,7 @@
       </c>
       <c r="C54" s="22" t="inlineStr">
         <is>
-          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
+          <t>Follow the principle 'traffic in Azure stays in Azure' so that communication across resources in Azure occurs via the Microsoft backbone network</t>
         </is>
       </c>
       <c r="D54" s="22" t="n"/>
@@ -3380,16 +3388,12 @@
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
-      <c r="I54" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
-        </is>
-      </c>
+      <c r="I54" s="16" t="n"/>
       <c r="J54" s="23" t="n"/>
       <c r="K54" s="23" t="n"/>
       <c r="L54" s="26" t="inlineStr">
         <is>
-          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
+          <t>8ac6a9e0-1e6a-483d-b5de-32c199248160</t>
         </is>
       </c>
       <c r="M54" s="26" t="n"/>
@@ -3410,7 +3414,7 @@
       </c>
       <c r="C55" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
+          <t>For outbound Internet traffic protection and filtering, deploy Azure Firewall</t>
         </is>
       </c>
       <c r="D55" s="22" t="n"/>
@@ -3428,13 +3432,18 @@
       <c r="H55" s="16" t="inlineStr">
         <is>
           <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J55" s="23" t="n"/>
       <c r="K55" s="23" t="n"/>
       <c r="L55" s="26" t="inlineStr">
         <is>
-          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
+          <t>7d5d1e4e-6146-458d-9558-fd77249b8211</t>
         </is>
       </c>
       <c r="M55" s="26" t="n"/>
@@ -3455,7 +3464,7 @@
       </c>
       <c r="C56" s="22" t="inlineStr">
         <is>
-          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
+          <t>When deploying partner networking technologies and NVAs in VWAN, verify configuration with partner vendor's guidance to ensure there are no conflicting configurations</t>
         </is>
       </c>
       <c r="D56" s="22" t="n"/>
@@ -3479,7 +3488,7 @@
       <c r="K56" s="23" t="n"/>
       <c r="L56" s="26" t="inlineStr">
         <is>
-          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
+          <t>12df27ee-412e-47f9-a3f6-304722dd69c5</t>
         </is>
       </c>
       <c r="M56" s="26" t="n"/>
@@ -3500,7 +3509,7 @@
       </c>
       <c r="C57" s="22" t="inlineStr">
         <is>
-          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
+          <t>Ensure that Azure Virtual WAN and Azure Firewall resources are created in the connectivity subscription.</t>
         </is>
       </c>
       <c r="D57" s="22" t="n"/>
@@ -3517,14 +3526,14 @@
       <c r="G57" s="22" t="n"/>
       <c r="H57" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J57" s="23" t="n"/>
       <c r="K57" s="23" t="n"/>
       <c r="L57" s="26" t="inlineStr">
         <is>
-          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
+          <t>b5c2622f-54b6-49ba-b33a-ad5e8c68e1d7</t>
         </is>
       </c>
       <c r="M57" s="26" t="n"/>
@@ -3545,7 +3554,7 @@
       </c>
       <c r="C58" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
+          <t>Ensure that the network architecture is within the Azure Virtual WAN limits.</t>
         </is>
       </c>
       <c r="D58" s="22" t="n"/>
@@ -3562,14 +3571,14 @@
       <c r="G58" s="22" t="n"/>
       <c r="H58" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits</t>
         </is>
       </c>
       <c r="J58" s="23" t="n"/>
       <c r="K58" s="23" t="n"/>
       <c r="L58" s="26" t="inlineStr">
         <is>
-          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
+          <t>6667313b-4f56-464b-9e98-4a859c773e7d</t>
         </is>
       </c>
       <c r="M58" s="26" t="n"/>
@@ -3585,12 +3594,12 @@
       </c>
       <c r="B59" s="22" t="inlineStr">
         <is>
-          <t>Hub and spoke</t>
+          <t>Virtual WAN</t>
         </is>
       </c>
       <c r="C59" s="22" t="inlineStr">
         <is>
-          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
+          <t>Use Azure Monitor Insights for Virtual WAN to monitor the end-to-end topology of the Virtual WAN, status, and key metrics.</t>
         </is>
       </c>
       <c r="D59" s="22" t="n"/>
@@ -3607,19 +3616,14 @@
       <c r="G59" s="22" t="n"/>
       <c r="H59" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/azure-monitor-insights</t>
         </is>
       </c>
       <c r="J59" s="23" t="n"/>
       <c r="K59" s="23" t="n"/>
       <c r="L59" s="26" t="inlineStr">
         <is>
-          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
+          <t>261623a7-65a9-417e-8f34-8ef254c27d42</t>
         </is>
       </c>
       <c r="M59" s="26" t="n"/>
@@ -3640,7 +3644,7 @@
       </c>
       <c r="C60" s="22" t="inlineStr">
         <is>
-          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
+          <t>Consider a network design based on the traditional hub-and-spoke network topology for the following scenarios: a network architecture deployed within a single Azure region; a network architecture spans multiple Azure regions with no need for transitive connectivity between virtual networks for landing zones across regions; a network architecture that spans multiple Azure regions with global VNet peering used to connect virtual networks across Azure regions; a network architecture with no need for transitive connectivity between VPN and ExpressRoute connections; the main hybrid connectivity method in place is ExpressRoute, and the number of VPN connections is less than 30 per VPN gateway; there's a dependency on centralized NVAs and granular routing.</t>
         </is>
       </c>
       <c r="D60" s="22" t="n"/>
@@ -3657,14 +3661,19 @@
       <c r="G60" s="22" t="n"/>
       <c r="H60" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/enterprise-scale/network-topology-and-connectivity</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J60" s="23" t="n"/>
       <c r="K60" s="23" t="n"/>
       <c r="L60" s="26" t="inlineStr">
         <is>
-          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
+          <t>e8bbac75-7155-49ab-a153-e8908ae28c84</t>
         </is>
       </c>
       <c r="M60" s="26" t="n"/>
@@ -3685,7 +3694,7 @@
       </c>
       <c r="C61" s="22" t="inlineStr">
         <is>
-          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
+          <t>Ensure that shared services, including ExpressRoute gateways, VPN gateways, and Azure Firewall or partner NVAs in the central-hub virtual network. If necessary, also deploy Active Directory domain controllers and DNS servers.</t>
         </is>
       </c>
       <c r="D61" s="22" t="n"/>
@@ -3702,14 +3711,14 @@
       <c r="G61" s="22" t="n"/>
       <c r="H61" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/expressroute</t>
         </is>
       </c>
       <c r="J61" s="23" t="n"/>
       <c r="K61" s="23" t="n"/>
       <c r="L61" s="26" t="inlineStr">
         <is>
-          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
+          <t>7dd61623-a364-4a90-9eca-e48ebd54cd7d</t>
         </is>
       </c>
       <c r="M61" s="26" t="n"/>
@@ -3730,7 +3739,7 @@
       </c>
       <c r="C62" s="22" t="inlineStr">
         <is>
-          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
+          <t>When deploying partner networking technologies or NVAs, follow the partner vendor's guidance</t>
         </is>
       </c>
       <c r="D62" s="22" t="n"/>
@@ -3747,14 +3756,14 @@
       <c r="G62" s="22" t="n"/>
       <c r="H62" s="16" t="inlineStr">
         <is>
-          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/dmz/nva-ha</t>
         </is>
       </c>
       <c r="J62" s="23" t="n"/>
       <c r="K62" s="23" t="n"/>
       <c r="L62" s="26" t="inlineStr">
         <is>
-          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
+          <t>e2e8abac-3571-4559-ab91-53e89f89dc7b</t>
         </is>
       </c>
       <c r="M62" s="26" t="n"/>
@@ -3775,7 +3784,7 @@
       </c>
       <c r="C63" s="22" t="inlineStr">
         <is>
-          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
+          <t>Do not deploy inbound L7 services such as Azure Application Gateway as a shared service in the central-hub virtual network. Instead, deploy them together with the app in their respective landing zones.</t>
         </is>
       </c>
       <c r="D63" s="22" t="n"/>
@@ -3792,7 +3801,7 @@
       <c r="G63" s="22" t="n"/>
       <c r="H63" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+          <t>https://azure.microsoft.com/solutions/network-appliances/</t>
         </is>
       </c>
       <c r="I63" s="16" t="n"/>
@@ -3800,7 +3809,7 @@
       <c r="K63" s="23" t="n"/>
       <c r="L63" s="26" t="inlineStr">
         <is>
-          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
+          <t>44ce3b1a-2808-4b9e-a1bf-1038df03a822</t>
         </is>
       </c>
       <c r="M63" s="26" t="n"/>
@@ -3821,7 +3830,7 @@
       </c>
       <c r="C64" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
+          <t>If you need transit between ExpressRoute and VPN gateways, use Azure Route Server.</t>
         </is>
       </c>
       <c r="D64" s="22" t="n"/>
@@ -3838,19 +3847,15 @@
       <c r="G64" s="22" t="n"/>
       <c r="H64" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
-        </is>
-      </c>
-      <c r="I64" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-howto-coexist-resource-manager#to-enable-transit-routing-between-expressroute-and-azure-vpn</t>
+        </is>
+      </c>
+      <c r="I64" s="16" t="n"/>
       <c r="J64" s="23" t="n"/>
       <c r="K64" s="23" t="n"/>
       <c r="L64" s="26" t="inlineStr">
         <is>
-          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
+          <t>ce463dbb-bc8a-4c2a-aebc-92a43da1dae2</t>
         </is>
       </c>
       <c r="M64" s="26" t="n"/>
@@ -3871,7 +3876,7 @@
       </c>
       <c r="C65" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
+          <t xml:space="preserve">For network architectures with multiple hub-and-spoke topologies across Azure regions, use Global Virtual Network Peering to connect landing-zone virtual networks when a small number of landing zones need to communicate across regions. </t>
         </is>
       </c>
       <c r="D65" s="22" t="n"/>
@@ -3888,19 +3893,19 @@
       <c r="G65" s="22" t="n"/>
       <c r="H65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-networks-faq#can-i-create-a-peering-connection-to-a-vnet-in-a-different-region</t>
         </is>
       </c>
       <c r="I65" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-virtual-networks/</t>
         </is>
       </c>
       <c r="J65" s="23" t="n"/>
       <c r="K65" s="23" t="n"/>
       <c r="L65" s="26" t="inlineStr">
         <is>
-          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
+          <t>cc881471-607c-41cc-a0e6-14658dd558f9</t>
         </is>
       </c>
       <c r="M65" s="26" t="n"/>
@@ -3921,7 +3926,7 @@
       </c>
       <c r="C66" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
+          <t xml:space="preserve">When you deploy a hub-and-spoke network architecture in two Azure regions and transit connectivity between all landing zones across regions is required, use ExpressRoute with dual circuits to provide transit connectivity for landing-zone virtual networks across Azure regions. </t>
         </is>
       </c>
       <c r="D66" s="22" t="n"/>
@@ -3938,19 +3943,19 @@
       <c r="G66" s="22" t="n"/>
       <c r="H66" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-faqs</t>
         </is>
       </c>
       <c r="I66" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J66" s="23" t="n"/>
       <c r="K66" s="23" t="n"/>
       <c r="L66" s="26" t="inlineStr">
         <is>
-          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
+          <t>37239b82-1112-4dbd-9eaf-12e6f943e53f</t>
         </is>
       </c>
       <c r="M66" s="26" t="n"/>
@@ -3971,7 +3976,7 @@
       </c>
       <c r="C67" s="22" t="inlineStr">
         <is>
-          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
+          <t>Use Azure Monitor for Networks to monitor the end-to-end state of the networks on Azure.</t>
         </is>
       </c>
       <c r="D67" s="22" t="n"/>
@@ -3988,15 +3993,19 @@
       <c r="G67" s="22" t="n"/>
       <c r="H67" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
-        </is>
-      </c>
-      <c r="I67" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/azure-monitor/insights/network-insights-overview</t>
+        </is>
+      </c>
+      <c r="I67" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J67" s="23" t="n"/>
       <c r="K67" s="23" t="n"/>
       <c r="L67" s="26" t="inlineStr">
         <is>
-          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
+          <t>4722d929-c1b1-4cd6-81f5-4b29bade39ad</t>
         </is>
       </c>
       <c r="M67" s="26" t="n"/>
@@ -4012,12 +4021,12 @@
       </c>
       <c r="B68" s="22" t="inlineStr">
         <is>
-          <t>Hybrid</t>
+          <t>Hub and spoke</t>
         </is>
       </c>
       <c r="C68" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
+          <t>When connecting spoke virtual networks to the central hub virtual network, consider VNet peering limits and the maximum number of prefixes that can be advertised via ExpressRoute</t>
         </is>
       </c>
       <c r="D68" s="22" t="n"/>
@@ -4034,19 +4043,15 @@
       <c r="G68" s="22" t="n"/>
       <c r="H68" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
-        </is>
-      </c>
-      <c r="I68" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/azure-subscription-service-limits?toc=/azure/virtual-network/toc.json#azure-resource-manager-virtual-networking-limits</t>
+        </is>
+      </c>
+      <c r="I68" s="16" t="n"/>
       <c r="J68" s="23" t="n"/>
       <c r="K68" s="23" t="n"/>
       <c r="L68" s="26" t="inlineStr">
         <is>
-          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
+          <t>0e7c28ec-9366-4572-83b0-f4664b1d944a</t>
         </is>
       </c>
       <c r="M68" s="26" t="n"/>
@@ -4067,7 +4072,7 @@
       </c>
       <c r="C69" s="22" t="inlineStr">
         <is>
-          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
+          <t>Ensure that you have investigated the possibility to use ExpressRoute as primary connection to Azure.</t>
         </is>
       </c>
       <c r="D69" s="22" t="n"/>
@@ -4084,7 +4089,7 @@
       <c r="G69" s="22" t="n"/>
       <c r="H69" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/architecture/reference-architectures/hybrid-networking/hub-spoke?tabs=cli</t>
         </is>
       </c>
       <c r="I69" s="16" t="inlineStr">
@@ -4096,7 +4101,7 @@
       <c r="K69" s="23" t="n"/>
       <c r="L69" s="26" t="inlineStr">
         <is>
-          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
+          <t>359c373e-7dd6-4162-9a36-4a907ecae48e</t>
         </is>
       </c>
       <c r="M69" s="26" t="n"/>
@@ -4117,7 +4122,7 @@
       </c>
       <c r="C70" s="22" t="inlineStr">
         <is>
-          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
+          <t>When you use multiple ExpressRoute circuits, or multiple on-prem locations, make sure to optimize routing with BGP attributes, if certain paths are preferred.</t>
         </is>
       </c>
       <c r="D70" s="22" t="n"/>
@@ -4146,7 +4151,7 @@
       <c r="K70" s="24" t="n"/>
       <c r="L70" s="26" t="inlineStr">
         <is>
-          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
+          <t>f29812b2-363c-4efe-879b-599de0d5973c</t>
         </is>
       </c>
       <c r="M70" s="26" t="n"/>
@@ -4167,7 +4172,7 @@
       </c>
       <c r="C71" s="22" t="inlineStr">
         <is>
-          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
+          <t>Ensure that you're using the right SKU for the ExpressRoute/VPN gateways based on bandwidth and performance requirements.</t>
         </is>
       </c>
       <c r="D71" s="22" t="n"/>
@@ -4184,7 +4189,7 @@
       <c r="G71" s="22" t="n"/>
       <c r="H71" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I71" s="16" t="inlineStr">
@@ -4196,7 +4201,7 @@
       <c r="K71" s="23" t="n"/>
       <c r="L71" s="26" t="inlineStr">
         <is>
-          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
+          <t>d4cd21b0-8813-47f5-b6c4-cfd3e504547c</t>
         </is>
       </c>
       <c r="M71" s="26" t="n"/>
@@ -4217,7 +4222,7 @@
       </c>
       <c r="C72" s="22" t="inlineStr">
         <is>
-          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
+          <t>Deploy a zone-redundant ExpressRoute gateway in the supported Azure regions.</t>
         </is>
       </c>
       <c r="D72" s="22" t="n"/>
@@ -4234,7 +4239,7 @@
       <c r="G72" s="22" t="n"/>
       <c r="H72" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-about-virtual-network-gateways</t>
         </is>
       </c>
       <c r="I72" s="16" t="inlineStr">
@@ -4246,7 +4251,7 @@
       <c r="K72" s="23" t="n"/>
       <c r="L72" s="26" t="inlineStr">
         <is>
-          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
+          <t>2447ec66-138a-4720-8f1c-e16ed301d6e8</t>
         </is>
       </c>
       <c r="M72" s="26" t="n"/>
@@ -4267,7 +4272,7 @@
       </c>
       <c r="C73" s="22" t="inlineStr">
         <is>
-          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
+          <t>For scenarios that require bandwidth higher than 10 Gbps or dedicated 10/100-Gbps ports, use ExpressRoute Direct.</t>
         </is>
       </c>
       <c r="D73" s="22" t="n"/>
@@ -4284,7 +4289,7 @@
       <c r="G73" s="22" t="n"/>
       <c r="H73" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I73" s="16" t="inlineStr">
@@ -4296,7 +4301,7 @@
       <c r="K73" s="23" t="n"/>
       <c r="L73" s="26" t="inlineStr">
         <is>
-          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
+          <t>72e52e36-11cc-458b-9a4b-1511e43a58a9</t>
         </is>
       </c>
       <c r="M73" s="26" t="n"/>
@@ -4317,7 +4322,7 @@
       </c>
       <c r="C74" s="22" t="inlineStr">
         <is>
-          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
+          <t>When low latency is required, or throughput from on-premises to Azure must be greater than 10 Gbps, enable FastPath to bypass the ExpressRoute gateway from the data path.</t>
         </is>
       </c>
       <c r="D74" s="22" t="n"/>
@@ -4346,7 +4351,7 @@
       <c r="K74" s="23" t="n"/>
       <c r="L74" s="26" t="inlineStr">
         <is>
-          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
+          <t>c2299c4d-7b57-4d0c-9555-62f2b3e4563a</t>
         </is>
       </c>
       <c r="M74" s="26" t="n"/>
@@ -4367,7 +4372,7 @@
       </c>
       <c r="C75" s="22" t="inlineStr">
         <is>
-          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
+          <t>Use VPN gateways to connect branches or remote locations to Azure. For higher resilience, deploy zone-redundant gateways (where available).</t>
         </is>
       </c>
       <c r="D75" s="22" t="n"/>
@@ -4384,7 +4389,7 @@
       <c r="G75" s="22" t="n"/>
       <c r="H75" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/networking/</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
         </is>
       </c>
       <c r="I75" s="16" t="inlineStr">
@@ -4396,7 +4401,7 @@
       <c r="K75" s="24" t="n"/>
       <c r="L75" s="26" t="inlineStr">
         <is>
-          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
+          <t>4d873974-8b66-42d6-b15f-512a65498f6d</t>
         </is>
       </c>
       <c r="M75" s="26" t="n"/>
@@ -4417,7 +4422,7 @@
       </c>
       <c r="C76" s="22" t="inlineStr">
         <is>
-          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
+          <t>Use ExpressRoute Global Reach to connect large offices, regional headquarters, or datacenters connected to Azure via ExpressRoute.</t>
         </is>
       </c>
       <c r="D76" s="22" t="n"/>
@@ -4434,7 +4439,7 @@
       <c r="G76" s="22" t="n"/>
       <c r="H76" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
+          <t>https://docs.microsoft.com/azure/networking/</t>
         </is>
       </c>
       <c r="I76" s="16" t="inlineStr">
@@ -4446,7 +4451,7 @@
       <c r="K76" s="23" t="n"/>
       <c r="L76" s="26" t="inlineStr">
         <is>
-          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
+          <t>fe237de1-43b1-46c3-8d7a-a9b64704489a</t>
         </is>
       </c>
       <c r="M76" s="26" t="n"/>
@@ -4467,7 +4472,7 @@
       </c>
       <c r="C77" s="22" t="inlineStr">
         <is>
-          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
+          <t>When traffic isolation or dedicated bandwidth is required, such as for separating production and nonproduction environments, use different ExpressRoute circuits. It will help you ensure isolated routing domains and alleviate noisy-neighbor risks.</t>
         </is>
       </c>
       <c r="D77" s="22" t="n"/>
@@ -4484,7 +4489,7 @@
       <c r="G77" s="22" t="n"/>
       <c r="H77" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/services/networking/expressroute/reliability</t>
         </is>
       </c>
       <c r="I77" s="16" t="inlineStr">
@@ -4496,7 +4501,7 @@
       <c r="K77" s="24" t="n"/>
       <c r="L77" s="26" t="inlineStr">
         <is>
-          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
+          <t>8042d88e-79d1-47b7-9b22-a5a67e7a8ed4</t>
         </is>
       </c>
       <c r="M77" s="26" t="n"/>
@@ -4517,7 +4522,7 @@
       </c>
       <c r="C78" s="22" t="inlineStr">
         <is>
-          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
+          <t>Monitor ExpressRoute availability and utilization using built-in Azure Monitor metrics.</t>
         </is>
       </c>
       <c r="D78" s="22" t="n"/>
@@ -4534,7 +4539,7 @@
       <c r="G78" s="22" t="n"/>
       <c r="H78" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-monitoring-metrics-alerts</t>
         </is>
       </c>
       <c r="I78" s="16" t="inlineStr">
@@ -4546,7 +4551,7 @@
       <c r="K78" s="23" t="n"/>
       <c r="L78" s="26" t="inlineStr">
         <is>
-          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
+          <t>b30e38c3-f298-412b-8363-cefe179b599d</t>
         </is>
       </c>
       <c r="M78" s="26" t="n"/>
@@ -4567,7 +4572,7 @@
       </c>
       <c r="C79" s="22" t="inlineStr">
         <is>
-          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
+          <t>Use Connection Monitor for connectivity monitoring across the environment.</t>
         </is>
       </c>
       <c r="D79" s="22" t="n"/>
@@ -4584,7 +4589,7 @@
       <c r="G79" s="22" t="n"/>
       <c r="H79" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
+          <t>https://docs.microsoft.com/azure/expressroute/how-to-configure-connection-monitor</t>
         </is>
       </c>
       <c r="I79" s="16" t="inlineStr">
@@ -4596,7 +4601,7 @@
       <c r="K79" s="23" t="n"/>
       <c r="L79" s="26" t="inlineStr">
         <is>
-          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
+          <t>5bf68dc9-325e-4873-bf88-f8214ef2e5d2</t>
         </is>
       </c>
       <c r="M79" s="26" t="n"/>
@@ -4612,12 +4617,12 @@
       </c>
       <c r="B80" s="22" t="inlineStr">
         <is>
-          <t>PaaS</t>
+          <t>Hybrid</t>
         </is>
       </c>
       <c r="C80" s="22" t="inlineStr">
         <is>
-          <t>If you need private communication to PaaS services, consider the different options available.</t>
+          <t>Don't explicitly use ExpressRoute circuits from a single peering location. Doing so creates a single point of failure and makes the organization susceptible to peering location outages.</t>
         </is>
       </c>
       <c r="D80" s="22" t="n"/>
@@ -4634,19 +4639,19 @@
       <c r="G80" s="22" t="n"/>
       <c r="H80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
+          <t>https://docs.microsoft.com/azure/expressroute/designing-for-disaster-recovery-with-expressroute-privatepeering#challenges-of-using-multiple-expressroute-circuits</t>
         </is>
       </c>
       <c r="I80" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J80" s="23" t="n"/>
       <c r="K80" s="23" t="n"/>
       <c r="L80" s="26" t="inlineStr">
         <is>
-          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
+          <t>e0d5973c-d4cd-421b-8881-37f5e6c4cfd3</t>
         </is>
       </c>
       <c r="M80" s="26" t="n"/>
@@ -4667,7 +4672,7 @@
       </c>
       <c r="C81" s="22" t="inlineStr">
         <is>
-          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
+          <t>If you need private communication to PaaS services, consider the different options available.</t>
         </is>
       </c>
       <c r="D81" s="22" t="n"/>
@@ -4689,14 +4694,14 @@
       </c>
       <c r="I81" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-private-access-to-azure-services/</t>
         </is>
       </c>
       <c r="J81" s="23" t="n"/>
       <c r="K81" s="23" t="n"/>
       <c r="L81" s="26" t="inlineStr">
         <is>
-          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
+          <t>e504547c-2447-4ec6-9138-a7200f1ce16e</t>
         </is>
       </c>
       <c r="M81" s="26" t="n"/>
@@ -4717,7 +4722,7 @@
       </c>
       <c r="C82" s="22" t="inlineStr">
         <is>
-          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
+          <t>Azure PaaS services that have been injected into a virtual network still perform management plane operations by using public IP addresses. Ensure that this communication is not broken</t>
         </is>
       </c>
       <c r="D82" s="22" t="n"/>
@@ -4734,19 +4739,19 @@
       <c r="G82" s="22" t="n"/>
       <c r="H82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/vnet-integration-for-azure-services</t>
         </is>
       </c>
       <c r="I82" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J82" s="23" t="n"/>
       <c r="K82" s="24" t="n"/>
       <c r="L82" s="26" t="inlineStr">
         <is>
-          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
+          <t>d301d6e8-72e5-42e3-911c-c58b5a4b1511</t>
         </is>
       </c>
       <c r="M82" s="26" t="n"/>
@@ -4767,7 +4772,7 @@
       </c>
       <c r="C83" s="22" t="inlineStr">
         <is>
-          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
+          <t>Use Private Link, where available, for shared Azure PaaS services.</t>
         </is>
       </c>
       <c r="D83" s="22" t="n"/>
@@ -4789,14 +4794,14 @@
       </c>
       <c r="I83" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J83" s="23" t="n"/>
       <c r="K83" s="23" t="n"/>
       <c r="L83" s="26" t="inlineStr">
         <is>
-          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
+          <t>e43a58a9-c229-49c4-b7b5-7d0c655562f2</t>
         </is>
       </c>
       <c r="M83" s="26" t="n"/>
@@ -4817,7 +4822,7 @@
       </c>
       <c r="C84" s="22" t="inlineStr">
         <is>
-          <t>Use virtual network service endpoints when Private Link isn't available</t>
+          <t>Access Azure PaaS services from on-premises via ExpressRoute private peering. This method avoids transiting over the public internet.</t>
         </is>
       </c>
       <c r="D84" s="22" t="n"/>
@@ -4839,14 +4844,14 @@
       </c>
       <c r="I84" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-azure-expressroute/</t>
         </is>
       </c>
       <c r="J84" s="23" t="n"/>
       <c r="K84" s="23" t="n"/>
       <c r="L84" s="26" t="inlineStr">
         <is>
-          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
+          <t>b3e4563a-4d87-4397-98b6-62d6d15f512a</t>
         </is>
       </c>
       <c r="M84" s="26" t="n"/>
@@ -4867,7 +4872,7 @@
       </c>
       <c r="C85" s="22" t="inlineStr">
         <is>
-          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
+          <t>Use virtual network service endpoints when Private Link isn't available</t>
         </is>
       </c>
       <c r="D85" s="22" t="n"/>
@@ -4896,7 +4901,7 @@
       <c r="K85" s="23" t="n"/>
       <c r="L85" s="26" t="inlineStr">
         <is>
-          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
+          <t>65498f6d-fe23-47de-843b-16c31d7aa9b6</t>
         </is>
       </c>
       <c r="M85" s="26" t="n"/>
@@ -4917,7 +4922,7 @@
       </c>
       <c r="C86" s="22" t="inlineStr">
         <is>
-          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
+          <t>Don't enable virtual network service endpoints by default on all subnets.</t>
         </is>
       </c>
       <c r="D86" s="22" t="n"/>
@@ -4946,7 +4951,7 @@
       <c r="K86" s="23" t="n"/>
       <c r="L86" s="26" t="inlineStr">
         <is>
-          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
+          <t>4704489a-8042-4d88-b79d-17b73b22a5a6</t>
         </is>
       </c>
       <c r="M86" s="26" t="n"/>
@@ -4967,7 +4972,7 @@
       </c>
       <c r="C87" s="22" t="inlineStr">
         <is>
-          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
+          <t>Don't use virtual network service endpoints when there are data exfiltration concerns, unless you use NVA filtering.</t>
         </is>
       </c>
       <c r="D87" s="22" t="n"/>
@@ -4996,7 +5001,7 @@
       <c r="K87" s="23" t="n"/>
       <c r="L87" s="26" t="inlineStr">
         <is>
-          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
+          <t>7e7a8ed4-b30e-438c-9f29-812b2363cefe</t>
         </is>
       </c>
       <c r="M87" s="26" t="n"/>
@@ -5012,12 +5017,12 @@
       </c>
       <c r="B88" s="22" t="inlineStr">
         <is>
-          <t>Internet</t>
+          <t>PaaS</t>
         </is>
       </c>
       <c r="C88" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
+          <t>Don't implement forced tunneling to enable communication from Azure to Azure resources.</t>
         </is>
       </c>
       <c r="D88" s="22" t="n"/>
@@ -5039,14 +5044,14 @@
       </c>
       <c r="I88" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/?source=learn</t>
         </is>
       </c>
       <c r="J88" s="23" t="n"/>
       <c r="K88" s="23" t="n"/>
       <c r="L88" s="26" t="inlineStr">
         <is>
-          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
+          <t>179b599d-e0d5-4973-ad4c-d21b088137f5</t>
         </is>
       </c>
       <c r="M88" s="26" t="n"/>
@@ -5067,7 +5072,7 @@
       </c>
       <c r="C89" s="22" t="inlineStr">
         <is>
-          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
+          <t>Use Azure Firewall to govern Azure outbound traffic to the internet, non-HTTP/S inbound connections, and East/West traffic filtering (if the organization requires it)</t>
         </is>
       </c>
       <c r="D89" s="22" t="n"/>
@@ -5084,19 +5089,19 @@
       <c r="G89" s="22" t="n"/>
       <c r="H89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
+          <t>https://docs.microsoft.com/azure/app-service/networking-features</t>
         </is>
       </c>
       <c r="I89" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J89" s="23" t="n"/>
       <c r="K89" s="23" t="n"/>
       <c r="L89" s="26" t="inlineStr">
         <is>
-          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
+          <t>e6c4cfd3-e504-4547-a244-7ec66138a720</t>
         </is>
       </c>
       <c r="M89" s="26" t="n"/>
@@ -5117,7 +5122,7 @@
       </c>
       <c r="C90" s="22" t="inlineStr">
         <is>
-          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
+          <t>Use Firewall Manager with Virtual WAN to deploy and manage Azure firewalls across Virtual WAN hubs or in hub virtual networks. Firewall Manager is now in general availability for both Virtual WAN and regular virtual networks.</t>
         </is>
       </c>
       <c r="D90" s="22" t="n"/>
@@ -5139,14 +5144,14 @@
       </c>
       <c r="I90" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J90" s="23" t="n"/>
       <c r="K90" s="23" t="n"/>
       <c r="L90" s="26" t="inlineStr">
         <is>
-          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
+          <t>0f1ce16e-d301-4d6e-a72e-52e3611cc58b</t>
         </is>
       </c>
       <c r="M90" s="26" t="n"/>
@@ -5167,7 +5172,7 @@
       </c>
       <c r="C91" s="22" t="inlineStr">
         <is>
-          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
+          <t>Create a global Azure Firewall policy to govern security posture across the global network environment and assign it to all Azure Firewall instances. Allow for granular policies to meet requirements of specific regions by delegating incremental firewall policies to local security teams via Azure role-based access control.</t>
         </is>
       </c>
       <c r="D91" s="22" t="n"/>
@@ -5189,14 +5194,14 @@
       </c>
       <c r="I91" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/en-gb/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J91" s="23" t="n"/>
       <c r="K91" s="23" t="n"/>
       <c r="L91" s="26" t="inlineStr">
         <is>
-          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
+          <t>5a4b1511-e43a-458a-ac22-99c4d7b57d0c</t>
         </is>
       </c>
       <c r="M91" s="26" t="n"/>
@@ -5217,7 +5222,7 @@
       </c>
       <c r="C92" s="22" t="inlineStr">
         <is>
-          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
+          <t>Configure supported partner SaaS security providers within Firewall Manager if the organization wants to use such solutions to help protect outbound connections.</t>
         </is>
       </c>
       <c r="D92" s="22" t="n"/>
@@ -5239,14 +5244,14 @@
       </c>
       <c r="I92" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J92" s="23" t="n"/>
       <c r="K92" s="23" t="n"/>
       <c r="L92" s="26" t="inlineStr">
         <is>
-          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
+          <t>655562f2-b3e4-4563-a4d8-739748b662d6</t>
         </is>
       </c>
       <c r="M92" s="26" t="n"/>
@@ -5267,7 +5272,7 @@
       </c>
       <c r="C93" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
+          <t>Use WAF within a landing-zone virtual network for protecting inbound HTTP/S traffic from the internet.</t>
         </is>
       </c>
       <c r="D93" s="22" t="n"/>
@@ -5284,7 +5289,7 @@
       <c r="G93" s="22" t="n"/>
       <c r="H93" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I93" s="16" t="inlineStr">
@@ -5296,7 +5301,7 @@
       <c r="K93" s="23" t="n"/>
       <c r="L93" s="26" t="inlineStr">
         <is>
-          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
+          <t>d15f512a-6549-48f6-bfe2-37de143b16c3</t>
         </is>
       </c>
       <c r="M93" s="26" t="n"/>
@@ -5317,7 +5322,7 @@
       </c>
       <c r="C94" s="22" t="inlineStr">
         <is>
-          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
+          <t>Use Azure Front Door and WAF policies to provide global protection across Azure regions for inbound HTTP/S connections to a landing zone.</t>
         </is>
       </c>
       <c r="D94" s="22" t="n"/>
@@ -5334,7 +5339,7 @@
       <c r="G94" s="22" t="n"/>
       <c r="H94" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/afds/afds-overview</t>
         </is>
       </c>
       <c r="I94" s="16" t="inlineStr">
@@ -5346,7 +5351,7 @@
       <c r="K94" s="23" t="n"/>
       <c r="L94" s="26" t="inlineStr">
         <is>
-          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
+          <t>1d7aa9b6-4704-4489-a804-2d88e79d17b7</t>
         </is>
       </c>
       <c r="M94" s="26" t="n"/>
@@ -5367,7 +5372,7 @@
       </c>
       <c r="C95" s="22" t="inlineStr">
         <is>
-          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
+          <t>When using Azure Front Door and Azure Application Gateway to help protect HTTP/S apps, use WAF policies in Azure Front Door. Lock down Azure Application Gateway to receive traffic only from Azure Front Door.</t>
         </is>
       </c>
       <c r="D95" s="22" t="n"/>
@@ -5389,14 +5394,14 @@
       </c>
       <c r="I95" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J95" s="23" t="n"/>
       <c r="K95" s="23" t="n"/>
       <c r="L95" s="26" t="inlineStr">
         <is>
-          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
+          <t>3b22a5a6-7e7a-48ed-9b30-e38c3f29812b</t>
         </is>
       </c>
       <c r="M95" s="26" t="n"/>
@@ -5417,7 +5422,7 @@
       </c>
       <c r="C96" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>If partner NVAs are required for inbound HTTP/S connections, deploy them within a landing-zone virtual network and together with the apps that they're protecting and exposing to the internet.</t>
         </is>
       </c>
       <c r="D96" s="22" t="n"/>
@@ -5434,19 +5439,19 @@
       <c r="G96" s="22" t="n"/>
       <c r="H96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I96" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J96" s="23" t="n"/>
       <c r="K96" s="23" t="n"/>
       <c r="L96" s="26" t="inlineStr">
         <is>
-          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
+          <t>2363cefe-179b-4599-be0d-5973cd4cd21b</t>
         </is>
       </c>
       <c r="M96" s="26" t="n"/>
@@ -5462,12 +5467,12 @@
       </c>
       <c r="B97" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Internet</t>
         </is>
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
+          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5484,19 +5489,19 @@
       <c r="G97" s="22" t="n"/>
       <c r="H97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-reference-architectures</t>
         </is>
       </c>
       <c r="I97" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J97" s="23" t="n"/>
       <c r="K97" s="23" t="n"/>
       <c r="L97" s="26" t="inlineStr">
         <is>
-          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
+          <t>088137f5-e6c4-4cfd-9e50-4547c2447ec6</t>
         </is>
       </c>
       <c r="M97" s="26" t="n"/>
@@ -5517,7 +5522,7 @@
       </c>
       <c r="C98" s="22" t="inlineStr">
         <is>
-          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
+          <t>Perform app delivery within landing zones for both internal-facing (corp) and external-facing apps (online).</t>
         </is>
       </c>
       <c r="D98" s="22" t="n"/>
@@ -5534,7 +5539,7 @@
       <c r="G98" s="22" t="n"/>
       <c r="H98" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/resource-org-management-groups#management-groups-in-the-azure-landing-zone-accelerator</t>
         </is>
       </c>
       <c r="I98" s="16" t="inlineStr">
@@ -5546,7 +5551,7 @@
       <c r="K98" s="23" t="n"/>
       <c r="L98" s="26" t="inlineStr">
         <is>
-          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
+          <t>6138a720-0f1c-4e16-bd30-1d6e872e52e3</t>
         </is>
       </c>
       <c r="M98" s="26" t="n"/>
@@ -5567,7 +5572,7 @@
       </c>
       <c r="C99" s="22" t="inlineStr">
         <is>
-          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
+          <t>For secure delivery of HTTP/S apps, use Application Gateway v2 and ensure that WAF protection and policies are enabled.</t>
         </is>
       </c>
       <c r="D99" s="22" t="n"/>
@@ -5584,19 +5589,19 @@
       <c r="G99" s="22" t="n"/>
       <c r="H99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I99" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J99" s="23" t="n"/>
       <c r="K99" s="23" t="n"/>
       <c r="L99" s="26" t="inlineStr">
         <is>
-          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
+          <t>611cc58b-5a4b-4151-8e43-a58a9c2299c4</t>
         </is>
       </c>
       <c r="M99" s="26" t="n"/>
@@ -5617,7 +5622,7 @@
       </c>
       <c r="C100" s="22" t="inlineStr">
         <is>
-          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
+          <t>Use a partner NVA if you can't use Application Gateway v2 for the security of HTTP/S apps.</t>
         </is>
       </c>
       <c r="D100" s="22" t="n"/>
@@ -5634,19 +5639,19 @@
       <c r="G100" s="22" t="n"/>
       <c r="H100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I100" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-network-infrastructure/</t>
         </is>
       </c>
       <c r="J100" s="23" t="n"/>
       <c r="K100" s="23" t="n"/>
       <c r="L100" s="26" t="inlineStr">
         <is>
-          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
+          <t>d7b57d0c-6555-462f-8b3e-4563a4d87397</t>
         </is>
       </c>
       <c r="M100" s="26" t="n"/>
@@ -5667,7 +5672,7 @@
       </c>
       <c r="C101" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Deploy Azure Application Gateway v2 or partner NVAs used for inbound HTTP/S connections within the landing-zone virtual network and with the apps that they're securing.</t>
         </is>
       </c>
       <c r="D101" s="22" t="n"/>
@@ -5689,14 +5694,14 @@
       </c>
       <c r="I101" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-application-delivery/</t>
         </is>
       </c>
       <c r="J101" s="23" t="n"/>
       <c r="K101" s="23" t="n"/>
       <c r="L101" s="26" t="inlineStr">
         <is>
-          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
+          <t>48b662d6-d15f-4512-a654-98f6dfe237de</t>
         </is>
       </c>
       <c r="M101" s="26" t="n"/>
@@ -5717,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
+          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -5746,7 +5751,7 @@
       <c r="K102" s="23" t="n"/>
       <c r="L102" s="26" t="inlineStr">
         <is>
-          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
+          <t>143b16c3-1d7a-4a9b-9470-4489a8042d88</t>
         </is>
       </c>
       <c r="M102" s="26" t="n"/>
@@ -5767,7 +5772,7 @@
       </c>
       <c r="C103" s="22" t="inlineStr">
         <is>
-          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
+          <t>Use Azure Front Door with WAF policies to deliver and help protect global HTTP/S apps that span Azure regions.</t>
         </is>
       </c>
       <c r="D103" s="22" t="n"/>
@@ -5784,7 +5789,7 @@
       <c r="G103" s="22" t="n"/>
       <c r="H103" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I103" s="16" t="inlineStr">
@@ -5796,7 +5801,7 @@
       <c r="K103" s="23" t="n"/>
       <c r="L103" s="26" t="inlineStr">
         <is>
-          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
+          <t>e79d17b7-3b22-4a5a-97e7-a8ed4b30e38c</t>
         </is>
       </c>
       <c r="M103" s="26" t="n"/>
@@ -5817,7 +5822,7 @@
       </c>
       <c r="C104" s="22" t="inlineStr">
         <is>
-          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
+          <t>When using Front Door and Application Gateway to help protect HTTP/S apps, use WAF policies in Front Door. Lock down Application Gateway to receive traffic only from Front Door.</t>
         </is>
       </c>
       <c r="D104" s="22" t="n"/>
@@ -5834,7 +5839,7 @@
       <c r="G104" s="22" t="n"/>
       <c r="H104" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/ddos-protection/ddos-protection-overview</t>
         </is>
       </c>
       <c r="I104" s="16" t="inlineStr">
@@ -5846,7 +5851,7 @@
       <c r="K104" s="23" t="n"/>
       <c r="L104" s="26" t="inlineStr">
         <is>
-          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
+          <t>3f29812b-2363-4cef-b179-b599de0d5973</t>
         </is>
       </c>
       <c r="M104" s="26" t="n"/>
@@ -5867,13 +5872,13 @@
       </c>
       <c r="C105" s="22" t="inlineStr">
         <is>
-          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
+          <t>Use Traffic Manager to deliver global apps that span protocols other than HTTP/S.</t>
         </is>
       </c>
       <c r="D105" s="22" t="n"/>
       <c r="E105" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F105" t="inlineStr">
@@ -5884,19 +5889,19 @@
       <c r="G105" s="22" t="n"/>
       <c r="H105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I105" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
         </is>
       </c>
       <c r="J105" s="23" t="n"/>
       <c r="K105" s="23" t="n"/>
       <c r="L105" s="26" t="inlineStr">
         <is>
-          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
+          <t>cd4cd21b-0881-437f-9e6c-4cfd3e504547</t>
         </is>
       </c>
       <c r="M105" s="26" t="n"/>
@@ -5912,18 +5917,18 @@
       </c>
       <c r="B106" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C106" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
+          <t>If users only need access to internal applications, has Azure AD Application Proxy been considered as an alternative to Azure Virtual Desktop (AVD)?</t>
         </is>
       </c>
       <c r="D106" s="22" t="n"/>
       <c r="E106" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F106" t="inlineStr">
@@ -5934,19 +5939,19 @@
       <c r="G106" s="22" t="n"/>
       <c r="H106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I106" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-azure-ad-application-proxy/</t>
         </is>
       </c>
       <c r="J106" s="23" t="n"/>
       <c r="K106" s="23" t="n"/>
       <c r="L106" s="26" t="inlineStr">
         <is>
-          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
+          <t>3b4b3e88-a459-4ed5-a22f-644dfbc58204</t>
         </is>
       </c>
       <c r="M106" s="26" t="n"/>
@@ -5962,12 +5967,12 @@
       </c>
       <c r="B107" s="22" t="inlineStr">
         <is>
-          <t>App delivery</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C107" s="22" t="inlineStr">
         <is>
-          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
+          <t xml:space="preserve">Delegate subnet creation to the landing zone owner. </t>
         </is>
       </c>
       <c r="D107" s="22" t="n"/>
@@ -5984,19 +5989,19 @@
       <c r="G107" s="22" t="n"/>
       <c r="H107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-landing-zone-network-segmentation</t>
         </is>
       </c>
       <c r="I107" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J107" s="23" t="n"/>
       <c r="K107" s="23" t="n"/>
       <c r="L107" s="26" t="inlineStr">
         <is>
-          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
+          <t>c2447ec6-6138-4a72-80f1-ce16ed301d6e</t>
         </is>
       </c>
       <c r="M107" s="26" t="n"/>
@@ -6012,12 +6017,12 @@
       </c>
       <c r="B108" s="22" t="inlineStr">
         <is>
-          <t>Segmentation</t>
+          <t>App delivery</t>
         </is>
       </c>
       <c r="C108" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
+          <t>To reduce the number of firewall ports open for incoming connections in your network, consider using Azure AD Application Proxy to give remote users secure and authenticated access to internal applications.</t>
         </is>
       </c>
       <c r="D108" s="22" t="n"/>
@@ -6034,19 +6039,19 @@
       <c r="G108" s="22" t="n"/>
       <c r="H108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
+          <t>https://docs.microsoft.com/azure/active-directory/app-proxy/application-proxy#how-application-proxy-works</t>
         </is>
       </c>
       <c r="I108" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-applications-external-access-azure-ad/</t>
         </is>
       </c>
       <c r="J108" s="23" t="n"/>
       <c r="K108" s="23" t="n"/>
       <c r="L108" s="26" t="inlineStr">
         <is>
-          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
+          <t>01ca7cf1-5754-442d-babb-8ba6772e5c30</t>
         </is>
       </c>
       <c r="M108" s="26" t="n"/>
@@ -6067,7 +6072,7 @@
       </c>
       <c r="C109" s="22" t="inlineStr">
         <is>
-          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
+          <t>Use NSGs to help protect traffic across subnets, as well as east/west traffic across the platform (traffic between landing zones).</t>
         </is>
       </c>
       <c r="D109" s="22" t="n"/>
@@ -6084,7 +6089,7 @@
       <c r="G109" s="22" t="n"/>
       <c r="H109" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
+          <t>https://docs.microsoft.com/azure/web-application-firewall/ag/ag-overview</t>
         </is>
       </c>
       <c r="I109" s="16" t="inlineStr">
@@ -6096,7 +6101,7 @@
       <c r="K109" s="23" t="n"/>
       <c r="L109" s="26" t="inlineStr">
         <is>
-          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
+          <t>872e52e3-611c-4c58-a5a4-b1511e43a58a</t>
         </is>
       </c>
       <c r="M109" s="26" t="n"/>
@@ -6117,7 +6122,7 @@
       </c>
       <c r="C110" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
+          <t>The application team should use application security groups at the subnet-level NSGs to help protect multi-tier VMs within the landing zone.</t>
         </is>
       </c>
       <c r="D110" s="22" t="n"/>
@@ -6134,7 +6139,7 @@
       <c r="G110" s="22" t="n"/>
       <c r="H110" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/organize-resources?tabs=AzureManagementGroupsAndHierarchy</t>
         </is>
       </c>
       <c r="I110" s="16" t="inlineStr">
@@ -6146,7 +6151,7 @@
       <c r="K110" s="23" t="n"/>
       <c r="L110" s="26" t="inlineStr">
         <is>
-          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
+          <t>9c2299c4-d7b5-47d0-a655-562f2b3e4563</t>
         </is>
       </c>
       <c r="M110" s="26" t="n"/>
@@ -6167,7 +6172,7 @@
       </c>
       <c r="C111" s="22" t="inlineStr">
         <is>
-          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
+          <t>Use NSGs and application security groups to micro-segment traffic within the landing zone and avoid using a central NVA to filter traffic flows.</t>
         </is>
       </c>
       <c r="D111" s="22" t="n"/>
@@ -6189,14 +6194,14 @@
       </c>
       <c r="I111" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J111" s="23" t="n"/>
       <c r="K111" s="23" t="n"/>
       <c r="L111" s="26" t="inlineStr">
         <is>
-          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
+          <t>a4d87397-48b6-462d-9d15-f512a65498f6</t>
         </is>
       </c>
       <c r="M111" s="26" t="n"/>
@@ -6217,7 +6222,7 @@
       </c>
       <c r="C112" s="22" t="inlineStr">
         <is>
-          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
+          <t>Enable NSG flow logs and feed them into Traffic Analytics to gain insights into internal and external traffic flows.</t>
         </is>
       </c>
       <c r="D112" s="22" t="n"/>
@@ -6239,14 +6244,14 @@
       </c>
       <c r="I112" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
         </is>
       </c>
       <c r="J112" s="23" t="n"/>
       <c r="K112" s="24" t="n"/>
       <c r="L112" s="26" t="inlineStr">
         <is>
-          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
+          <t>dfe237de-143b-416c-91d7-aa9b64704489</t>
         </is>
       </c>
       <c r="M112" s="26" t="n"/>
@@ -6267,7 +6272,7 @@
       </c>
       <c r="C113" s="22" t="inlineStr">
         <is>
-          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
+          <t>Use NSGs to selectively allow connectivity between landing zones.</t>
         </is>
       </c>
       <c r="D113" s="22" t="n"/>
@@ -6289,14 +6294,14 @@
       </c>
       <c r="I113" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J113" s="23" t="n"/>
       <c r="K113" s="23" t="n"/>
       <c r="L113" s="26" t="inlineStr">
         <is>
-          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
+          <t>a8042d88-e79d-417b-93b2-2a5a67e7a8ed</t>
         </is>
       </c>
       <c r="M113" s="26" t="n"/>
@@ -6312,12 +6317,12 @@
       </c>
       <c r="B114" s="22" t="inlineStr">
         <is>
-          <t>Encryption</t>
+          <t>Segmentation</t>
         </is>
       </c>
       <c r="C114" s="22" t="inlineStr">
         <is>
-          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
+          <t>For Virtual WAN topologies, route traffic across landing zones via Azure Firewall if the organization requires filtering and logging capabilities for traffic flowing across landing zones.</t>
         </is>
       </c>
       <c r="D114" s="22" t="n"/>
@@ -6337,12 +6342,16 @@
           <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
-      <c r="I114" s="16" t="n"/>
+      <c r="I114" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/secure-networking-infrastructure/</t>
+        </is>
+      </c>
       <c r="J114" s="23" t="n"/>
       <c r="K114" s="23" t="n"/>
       <c r="L114" s="26" t="inlineStr">
         <is>
-          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
+          <t>4b30e38c-3f29-4812-a236-3cefe179b599</t>
         </is>
       </c>
       <c r="M114" s="26" t="n"/>
@@ -6363,7 +6372,7 @@
       </c>
       <c r="C115" s="22" t="inlineStr">
         <is>
-          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
+          <t>When you're using ExpressRoute Direct, configure MACsec in order to encrypt traffic at the layer-two level between the organization's routers and MSEE. The diagram shows this encryption in flow.</t>
         </is>
       </c>
       <c r="D115" s="22" t="n"/>
@@ -6380,19 +6389,14 @@
       <c r="G115" s="22" t="n"/>
       <c r="H115" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/firewall/</t>
-        </is>
-      </c>
-      <c r="I115" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
+          <t>https://docs.microsoft.com/azure/virtual-network/network-security-group-how-it-works</t>
         </is>
       </c>
       <c r="J115" s="23" t="n"/>
       <c r="K115" s="23" t="n"/>
       <c r="L115" s="26" t="inlineStr">
         <is>
-          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
+          <t>de0d5973-cd4c-4d21-a088-137f5e6c4cfd</t>
         </is>
       </c>
       <c r="M115" s="26" t="n"/>
@@ -6413,7 +6417,7 @@
       </c>
       <c r="C116" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
+          <t>If traffic between Azure regions must be encrypted, use global VNet peering to connect virtual networks across regions.</t>
         </is>
       </c>
       <c r="D116" s="22" t="n"/>
@@ -6430,7 +6434,7 @@
       <c r="G116" s="22" t="n"/>
       <c r="H116" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
+          <t>https://docs.microsoft.com/azure/firewall/</t>
         </is>
       </c>
       <c r="I116" t="inlineStr">
@@ -6442,7 +6446,7 @@
       <c r="K116" s="23" t="n"/>
       <c r="L116" s="26" t="inlineStr">
         <is>
-          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
+          <t>3e504547-c244-47ec-9613-8a7200f1ce16</t>
         </is>
       </c>
       <c r="M116" s="26" t="n"/>
@@ -6458,12 +6462,12 @@
       </c>
       <c r="B117" s="22" t="inlineStr">
         <is>
-          <t>Inspection</t>
+          <t>Encryption</t>
         </is>
       </c>
       <c r="C117" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
+          <t xml:space="preserve">For Virtual WAN scenarios where MACsec isn't an option (for example, not using ExpressRoute Direct), use a Virtual WAN VPN gateway to establish IPsec tunnels over ExpressRoute private peering. </t>
         </is>
       </c>
       <c r="D117" s="22" t="n"/>
@@ -6480,19 +6484,19 @@
       <c r="G117" s="22" t="n"/>
       <c r="H117" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+          <t>https://docs.microsoft.com/azure/expressroute/expressroute-erdirect-about</t>
         </is>
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-network-security/</t>
         </is>
       </c>
       <c r="J117" s="23" t="n"/>
       <c r="K117" s="23" t="n"/>
       <c r="L117" s="26" t="inlineStr">
         <is>
-          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
+          <t>ed301d6e-872e-452e-9611-cc58b5a4b151</t>
         </is>
       </c>
       <c r="M117" s="26" t="n"/>
@@ -6513,7 +6517,7 @@
       </c>
       <c r="C118" s="22" t="inlineStr">
         <is>
-          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
+          <t>Use Network Watcher packets to capture despite the limited capture window.</t>
         </is>
       </c>
       <c r="D118" s="22" t="n"/>
@@ -6530,15 +6534,19 @@
       <c r="G118" s="22" t="n"/>
       <c r="H118" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
-        </is>
-      </c>
-      <c r="I118" s="16" t="n"/>
+          <t>https://docs.microsoft.com/azure/virtual-network/virtual-network-peering-overview</t>
+        </is>
+      </c>
+      <c r="I118" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/modules/design-implement-network-monitoring/</t>
+        </is>
+      </c>
       <c r="J118" s="23" t="n"/>
       <c r="K118" s="23" t="n"/>
       <c r="L118" s="26" t="inlineStr">
         <is>
-          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
+          <t>1e43a58a-9c22-499c-9d7b-57d0c655562f</t>
         </is>
       </c>
       <c r="M118" s="26" t="n"/>
@@ -6559,7 +6567,7 @@
       </c>
       <c r="C119" s="22" t="inlineStr">
         <is>
-          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
+          <t>Evaluate whether the latest version of NSG flow logs provides the level of detail that you need.</t>
         </is>
       </c>
       <c r="D119" s="22" t="n"/>
@@ -6576,14 +6584,14 @@
       <c r="G119" s="22" t="n"/>
       <c r="H119" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/virtual-wan/virtual-wan-about</t>
         </is>
       </c>
       <c r="J119" s="23" t="n"/>
       <c r="K119" s="23" t="n"/>
       <c r="L119" s="26" t="inlineStr">
         <is>
-          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
+          <t>2b3e4563-a4d8-4739-948b-662d6d15f512</t>
         </is>
       </c>
       <c r="M119" s="26" t="n"/>
@@ -6604,7 +6612,7 @@
       </c>
       <c r="C120" s="22" t="inlineStr">
         <is>
-          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
+          <t>Use partner solutions for scenarios that require deep packet inspection.</t>
         </is>
       </c>
       <c r="D120" s="22" t="n"/>
@@ -6621,7 +6629,7 @@
       <c r="G120" s="22" t="n"/>
       <c r="H120" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I120" s="16" t="n"/>
@@ -6629,7 +6637,7 @@
       <c r="K120" s="23" t="n"/>
       <c r="L120" s="26" t="inlineStr">
         <is>
-          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
+          <t>a65498f6-dfe2-437d-b143-b16c31d7aa9b</t>
         </is>
       </c>
       <c r="M120" s="26" t="n"/>
@@ -6640,17 +6648,17 @@
     <row r="121" ht="16.5" customHeight="1" s="13">
       <c r="A121" s="22" t="inlineStr">
         <is>
-          <t>Management and Monitoring</t>
+          <t>Network Topology and Connectivity</t>
         </is>
       </c>
       <c r="B121" s="22" t="inlineStr">
         <is>
-          <t>Monitoring</t>
+          <t>Inspection</t>
         </is>
       </c>
       <c r="C121" s="22" t="inlineStr">
         <is>
-          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
+          <t>Don't develop a custom solution to mirror traffic. Although this approach might be acceptable for small-scale scenarios, we don't encourage it at scale because of complexity and the supportability issues that might arise.</t>
         </is>
       </c>
       <c r="D121" s="22" t="n"/>
@@ -6667,19 +6675,15 @@
       <c r="G121" s="22" t="n"/>
       <c r="H121" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I121" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/plan-for-traffic-inspection</t>
+        </is>
+      </c>
+      <c r="I121" s="16" t="n"/>
       <c r="J121" s="23" t="n"/>
       <c r="K121" s="23" t="n"/>
       <c r="L121" s="26" t="inlineStr">
         <is>
-          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
+          <t>64704489-a804-42d8-ae79-d17b73b22a5a</t>
         </is>
       </c>
       <c r="M121" s="26" t="n"/>
@@ -6700,7 +6704,7 @@
       </c>
       <c r="C122" s="22" t="inlineStr">
         <is>
-          <t>Is the landing zone documented?</t>
+          <t>Use a single monitor logs workspace to manage platforms centrally except where Azure role-based access control (Azure RBAC), data sovereignty requirements, or data retention policies mandate separate workspaces.</t>
         </is>
       </c>
       <c r="D122" s="22" t="n"/>
@@ -6715,13 +6719,21 @@
         </is>
       </c>
       <c r="G122" s="22" t="n"/>
-      <c r="H122" s="16" t="n"/>
-      <c r="I122" s="16" t="n"/>
+      <c r="H122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
+      <c r="I122" s="16" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+        </is>
+      </c>
       <c r="J122" s="23" t="n"/>
       <c r="K122" s="23" t="n"/>
       <c r="L122" s="26" t="inlineStr">
         <is>
-          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
+          <t>67e7a8ed-4b30-4e38-a3f2-9812b2363cef</t>
         </is>
       </c>
       <c r="M122" s="26" t="n"/>
@@ -6742,7 +6754,7 @@
       </c>
       <c r="C123" s="22" t="inlineStr">
         <is>
-          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
+          <t>Is the landing zone documented?</t>
         </is>
       </c>
       <c r="D123" s="22" t="n"/>
@@ -6757,21 +6769,13 @@
         </is>
       </c>
       <c r="G123" s="22" t="n"/>
-      <c r="H123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
-        </is>
-      </c>
-      <c r="I123" s="16" t="inlineStr">
-        <is>
-          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
-        </is>
-      </c>
+      <c r="H123" s="16" t="n"/>
+      <c r="I123" s="16" t="n"/>
       <c r="J123" s="23" t="n"/>
       <c r="K123" s="23" t="n"/>
       <c r="L123" s="26" t="inlineStr">
         <is>
-          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
+          <t>e179b599-de0d-4597-9cd4-cd21b088137f</t>
         </is>
       </c>
       <c r="M123" s="26" t="n"/>
@@ -6792,7 +6796,7 @@
       </c>
       <c r="C124" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
+          <t>Export logs to Azure Storage if log retention requirements exceed two years. Use immutable storage with a write-once, read-many policy to make data non-erasable and non-modifiable for a user-specified interval.</t>
         </is>
       </c>
       <c r="D124" s="22" t="n"/>
@@ -6821,7 +6825,7 @@
       <c r="K124" s="23" t="n"/>
       <c r="L124" s="26" t="inlineStr">
         <is>
-          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
+          <t>5e6c4cfd-3e50-4454-9c24-47ec66138a72</t>
         </is>
       </c>
       <c r="M124" s="26" t="n"/>
@@ -6842,7 +6846,7 @@
       </c>
       <c r="C125" s="22" t="inlineStr">
         <is>
-          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
+          <t xml:space="preserve">Use Azure Policy for access control and compliance reporting. Azure Policy provides the ability to enforce organization-wide settings to ensure consistent policy adherence and fast violation detection. </t>
         </is>
       </c>
       <c r="D125" s="22" t="n"/>
@@ -6859,19 +6863,19 @@
       <c r="G125" s="22" t="n"/>
       <c r="H125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="I125" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/paths/architect-infrastructure-operations/</t>
         </is>
       </c>
       <c r="J125" s="23" t="n"/>
       <c r="K125" s="23" t="n"/>
       <c r="L125" s="26" t="inlineStr">
         <is>
-          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
+          <t>00f1ce16-ed30-41d6-b872-e52e3611cc58</t>
         </is>
       </c>
       <c r="M125" s="26" t="n"/>
@@ -6892,7 +6896,7 @@
       </c>
       <c r="C126" s="22" t="inlineStr">
         <is>
-          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
+          <t>Monitor in-guest virtual machine (VM) configuration drift using Azure Policy. Enabling guest configuration audit capabilities through policy helps application team workloads to immediately consume feature capabilities with little effort.</t>
         </is>
       </c>
       <c r="D126" s="22" t="n"/>
@@ -6909,19 +6913,19 @@
       <c r="G126" s="22" t="n"/>
       <c r="H126" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/how-to/guest-configuration-create</t>
         </is>
       </c>
       <c r="I126" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J126" s="23" t="n"/>
       <c r="K126" s="23" t="n"/>
       <c r="L126" s="26" t="inlineStr">
         <is>
-          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
+          <t>e7d7e484-3276-4d8b-bc05-5bcf619e8a13</t>
         </is>
       </c>
       <c r="M126" s="26" t="n"/>
@@ -6942,7 +6946,7 @@
       </c>
       <c r="C127" s="22" t="inlineStr">
         <is>
-          <t>Use Network Watcher to proactively monitor traffic flows</t>
+          <t xml:space="preserve">Use Update Management in Azure Automation as a long-term patching mechanism for both Windows and Linux VMs. </t>
         </is>
       </c>
       <c r="D127" s="22" t="n"/>
@@ -6959,19 +6963,19 @@
       <c r="G127" s="22" t="n"/>
       <c r="H127" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
+          <t>https://docs.microsoft.com/azure/automation/update-management/overview</t>
         </is>
       </c>
       <c r="I127" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
+          <t>https://docs.microsoft.com/learn/paths/azure-administrator-manage-compute-resources/</t>
         </is>
       </c>
       <c r="J127" s="23" t="n"/>
       <c r="K127" s="23" t="n"/>
       <c r="L127" s="26" t="inlineStr">
         <is>
-          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
+          <t>f9887952-5d62-4688-9d70-ba6c97be9951</t>
         </is>
       </c>
       <c r="M127" s="26" t="n"/>
@@ -6992,7 +6996,7 @@
       </c>
       <c r="C128" s="22" t="inlineStr">
         <is>
-          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
+          <t>Use Network Watcher to proactively monitor traffic flows</t>
         </is>
       </c>
       <c r="D128" s="22" t="n"/>
@@ -7009,19 +7013,19 @@
       <c r="G128" s="22" t="n"/>
       <c r="H128" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+          <t>https://docs.microsoft.com/azure/network-watcher/network-watcher-monitoring-overview</t>
         </is>
       </c>
       <c r="I128" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
+          <t>https://docs.microsoft.com/learn/modules/configure-network-watcher/</t>
         </is>
       </c>
       <c r="J128" s="23" t="n"/>
       <c r="K128" s="23" t="n"/>
       <c r="L128" s="26" t="inlineStr">
         <is>
-          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
+          <t>90483845-c986-4cb2-a131-56a12476e49f</t>
         </is>
       </c>
       <c r="M128" s="26" t="n"/>
@@ -7042,13 +7046,13 @@
       </c>
       <c r="C129" s="22" t="inlineStr">
         <is>
-          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
+          <t>Use resource locks to prevent accidental deletion of critical shared services.</t>
         </is>
       </c>
       <c r="D129" s="22" t="n"/>
       <c r="E129" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -7059,14 +7063,19 @@
       <c r="G129" s="22" t="n"/>
       <c r="H129" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/azure-resource-manager/management/lock-resources?tabs=json</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/learn/paths/implement-resource-mgmt-security/</t>
         </is>
       </c>
       <c r="J129" s="23" t="n"/>
       <c r="K129" s="23" t="n"/>
       <c r="L129" s="26" t="inlineStr">
         <is>
-          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
+          <t>541acdce-9793-477b-adb3-751ab2ab13ad</t>
         </is>
       </c>
       <c r="M129" s="26" t="n"/>
@@ -7087,13 +7096,13 @@
       </c>
       <c r="C130" s="22" t="inlineStr">
         <is>
-          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
+          <t>Use deny policies to supplement Azure role assignments. The combination of deny policies and Azure role assignments ensures the appropriate guardrails are in place to enforce who can deploy and configure resources and what resources they can deploy and configure.</t>
         </is>
       </c>
       <c r="D130" s="22" t="n"/>
       <c r="E130" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -7104,14 +7113,14 @@
       <c r="G130" s="22" t="n"/>
       <c r="H130" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J130" s="23" t="n"/>
       <c r="K130" s="23" t="n"/>
       <c r="L130" s="26" t="inlineStr">
         <is>
-          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
+          <t>a6e55d7d-8a2a-4db1-87d6-326af625ca44</t>
         </is>
       </c>
       <c r="M130" s="26" t="n"/>
@@ -7132,7 +7141,7 @@
       </c>
       <c r="C131" s="22" t="inlineStr">
         <is>
-          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
+          <t>Include service and resource health events as part of the overall platform monitoring solution. Tracking service and resource health from the platform perspective is an important component of resource management in Azure.</t>
         </is>
       </c>
       <c r="D131" s="22" t="n"/>
@@ -7149,14 +7158,14 @@
       <c r="G131" s="22" t="n"/>
       <c r="H131" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
+          <t>https://docs.microsoft.com/azure/service-health/alerts-activity-log-service-notifications-portal</t>
         </is>
       </c>
       <c r="J131" s="23" t="n"/>
       <c r="K131" s="23" t="n"/>
       <c r="L131" s="26" t="inlineStr">
         <is>
-          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
+          <t>e5695f22-23ac-4e8c-a123-08ca5017f154</t>
         </is>
       </c>
       <c r="M131" s="26" t="n"/>
@@ -7177,7 +7186,7 @@
       </c>
       <c r="C132" s="22" t="inlineStr">
         <is>
-          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
+          <t>Include alerts and action groups as part of the Azure Service Health platform to ensure that alerts or issues can be actioned</t>
         </is>
       </c>
       <c r="D132" s="22" t="n"/>
@@ -7194,14 +7203,14 @@
       <c r="G132" s="22" t="n"/>
       <c r="H132" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/action-groups</t>
         </is>
       </c>
       <c r="J132" s="23" t="n"/>
       <c r="K132" s="23" t="n"/>
       <c r="L132" s="26" t="inlineStr">
         <is>
-          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
+          <t>d5f345bf-97ab-41a7-819c-6104baa7d48c</t>
         </is>
       </c>
       <c r="M132" s="26" t="n"/>
@@ -7222,7 +7231,7 @@
       </c>
       <c r="C133" s="22" t="inlineStr">
         <is>
-          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
+          <t>Don't send raw log entries back to on-premises monitoring systems. Instead, adopt a principle that data born in Azure stays in Azure. If on-premises SIEM integration is required, then send critical alerts instead of logs.</t>
         </is>
       </c>
       <c r="D133" s="22" t="n"/>
@@ -7239,14 +7248,14 @@
       <c r="G133" s="22" t="n"/>
       <c r="H133" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/sentinel/quickstart-onboard</t>
         </is>
       </c>
       <c r="J133" s="23" t="n"/>
       <c r="K133" s="23" t="n"/>
       <c r="L133" s="26" t="inlineStr">
         <is>
-          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
+          <t>e3ab3693-829e-47e3-8618-3687a0477a20</t>
         </is>
       </c>
       <c r="M133" s="26" t="n"/>
@@ -7267,7 +7276,7 @@
       </c>
       <c r="C134" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor Logs for insights and reporting.</t>
+          <t>Use a centralized Azure Monitor Log Analytics workspace to collect logs and metrics from IaaS and PaaS application resources and control log access with Azure RBAC.</t>
         </is>
       </c>
       <c r="D134" s="22" t="n"/>
@@ -7284,14 +7293,14 @@
       <c r="G134" s="22" t="n"/>
       <c r="H134" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J134" s="23" t="n"/>
       <c r="K134" s="23" t="n"/>
       <c r="L134" s="26" t="inlineStr">
         <is>
-          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
+          <t>9945bda4-3334-4f24-a116-34182ba52752</t>
         </is>
       </c>
       <c r="M134" s="26" t="n"/>
@@ -7312,7 +7321,7 @@
       </c>
       <c r="C135" s="22" t="inlineStr">
         <is>
-          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
+          <t>Use Azure Monitor Logs for insights and reporting.</t>
         </is>
       </c>
       <c r="D135" s="22" t="n"/>
@@ -7329,14 +7338,14 @@
       <c r="G135" s="22" t="n"/>
       <c r="H135" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-setup-guide/monitoring-reporting?tabs=AzureMonitor</t>
         </is>
       </c>
       <c r="J135" s="23" t="n"/>
       <c r="K135" s="23" t="n"/>
       <c r="L135" s="26" t="inlineStr">
         <is>
-          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
+          <t>6944008b-e7d7-4e48-9327-6d8bdc055bcf</t>
         </is>
       </c>
       <c r="M135" s="26" t="n"/>
@@ -7357,7 +7366,7 @@
       </c>
       <c r="C136" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
+          <t>When necessary, use shared storage accounts within the landing zone for Azure diagnostic extension log storage.</t>
         </is>
       </c>
       <c r="D136" s="22" t="n"/>
@@ -7374,14 +7383,14 @@
       <c r="G136" s="22" t="n"/>
       <c r="H136" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/agents/diagnostics-extension-overview</t>
         </is>
       </c>
       <c r="J136" s="23" t="n"/>
       <c r="K136" s="23" t="n"/>
       <c r="L136" s="26" t="inlineStr">
         <is>
-          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
+          <t>619e8a13-f988-4795-85d6-26886d70ba6c</t>
         </is>
       </c>
       <c r="M136" s="26" t="n"/>
@@ -7402,7 +7411,7 @@
       </c>
       <c r="C137" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Monitor alerts for the generation of operational alerts.</t>
         </is>
       </c>
       <c r="D137" s="22" t="n"/>
@@ -7419,14 +7428,14 @@
       <c r="G137" s="22" t="n"/>
       <c r="H137" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/alerts/alerts-overview</t>
         </is>
       </c>
       <c r="J137" s="23" t="n"/>
       <c r="K137" s="23" t="n"/>
       <c r="L137" s="26" t="inlineStr">
         <is>
-          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
+          <t>97be9951-9048-4384-9c98-6cb2913156a1</t>
         </is>
       </c>
       <c r="M137" s="26" t="n"/>
@@ -7447,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
+          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -7464,14 +7473,14 @@
       <c r="G138" s="22" t="n"/>
       <c r="H138" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
+          <t>https://docs.microsoft.com/azure/site-recovery/site-recovery-overview</t>
         </is>
       </c>
       <c r="J138" s="23" t="n"/>
       <c r="K138" s="23" t="n"/>
       <c r="L138" s="26" t="inlineStr">
         <is>
-          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
+          <t>2476e49f-541a-4cdc-b979-377bcdb3751a</t>
         </is>
       </c>
       <c r="M138" s="26" t="n"/>
@@ -7492,7 +7501,7 @@
       </c>
       <c r="C139" s="22" t="inlineStr">
         <is>
-          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
+          <t>Ensure to use and test native PaaS service disaster recovery capabilities.</t>
         </is>
       </c>
       <c r="D139" s="22" t="n"/>
@@ -7509,14 +7518,14 @@
       <c r="G139" s="22" t="n"/>
       <c r="H139" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
+          <t>https://docs.microsoft.com/azure/architecture/framework/resiliency/backup-and-recovery</t>
         </is>
       </c>
       <c r="J139" s="23" t="n"/>
       <c r="K139" s="23" t="n"/>
       <c r="L139" s="26" t="inlineStr">
         <is>
-          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
+          <t>b2ab13ad-a6e5-45d7-b8a2-adb117d6326a</t>
         </is>
       </c>
       <c r="M139" s="26" t="n"/>
@@ -7527,23 +7536,23 @@
     <row r="140" ht="16.5" customHeight="1" s="13">
       <c r="A140" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B140" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C140" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Key Vault to store your secrets and credentials</t>
+          <t>Use Azure-native backup capabilities. Verify that partner/customer is aware of Azure Backup and all new capabilities which greatly can simplify backup management</t>
         </is>
       </c>
       <c r="D140" s="22" t="n"/>
       <c r="E140" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -7554,14 +7563,14 @@
       <c r="G140" s="22" t="n"/>
       <c r="H140" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
+          <t>https://docs.microsoft.com/azure/backup/backup-center-overview</t>
         </is>
       </c>
       <c r="J140" s="23" t="n"/>
       <c r="K140" s="23" t="n"/>
       <c r="L140" s="26" t="inlineStr">
         <is>
-          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
+          <t>f625ca44-e569-45f2-823a-ce8cb12308ca</t>
         </is>
       </c>
       <c r="M140" s="26" t="n"/>
@@ -7572,17 +7581,17 @@
     <row r="141" ht="16.5" customHeight="1" s="13">
       <c r="A141" s="22" t="inlineStr">
         <is>
-          <t>Security, Governance and Compliance</t>
+          <t>Management and Monitoring</t>
         </is>
       </c>
       <c r="B141" s="22" t="inlineStr">
         <is>
-          <t>Secrets</t>
+          <t>Monitoring</t>
         </is>
       </c>
       <c r="C141" s="22" t="inlineStr">
         <is>
-          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
+          <t>Ensure that monitoring requirements have been assessed and that appropriate data collection and alerting configurations are applied</t>
         </is>
       </c>
       <c r="D141" s="22" t="n"/>
@@ -7599,14 +7608,14 @@
       <c r="G141" s="22" t="n"/>
       <c r="H141" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
+          <t>https://docs.microsoft.com/azure/architecture/best-practices/monitoring</t>
         </is>
       </c>
       <c r="J141" s="23" t="n"/>
       <c r="K141" s="23" t="n"/>
       <c r="L141" s="26" t="inlineStr">
         <is>
-          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
+          <t>859c3900-4514-41eb-b010-475d695abd74</t>
         </is>
       </c>
       <c r="M141" s="26" t="n"/>
@@ -7627,13 +7636,13 @@
       </c>
       <c r="C142" s="22" t="inlineStr">
         <is>
-          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
+          <t>Use Azure Key Vault to store your secrets and credentials</t>
         </is>
       </c>
       <c r="D142" s="22" t="n"/>
       <c r="E142" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -7644,14 +7653,14 @@
       <c r="G142" s="22" t="n"/>
       <c r="H142" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview</t>
         </is>
       </c>
       <c r="J142" s="23" t="n"/>
       <c r="K142" s="23" t="n"/>
       <c r="L142" s="26" t="inlineStr">
         <is>
-          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
+          <t>5017f154-e3ab-4369-9829-e7e316183687</t>
         </is>
       </c>
       <c r="M142" s="26" t="n"/>
@@ -7672,7 +7681,7 @@
       </c>
       <c r="C143" s="22" t="inlineStr">
         <is>
-          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
+          <t>Use different Azure Key Vaults for different applications and regions to avoid transaction scale limits and restrict access to secrets.</t>
         </is>
       </c>
       <c r="D143" s="22" t="n"/>
@@ -7689,14 +7698,14 @@
       <c r="G143" s="22" t="n"/>
       <c r="H143" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/overview-throttling</t>
         </is>
       </c>
       <c r="J143" s="23" t="n"/>
       <c r="K143" s="23" t="n"/>
       <c r="L143" s="26" t="inlineStr">
         <is>
-          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
+          <t>a0477a20-9945-4bda-9333-4f2491163418</t>
         </is>
       </c>
       <c r="M143" s="26" t="n"/>
@@ -7717,7 +7726,7 @@
       </c>
       <c r="C144" s="22" t="inlineStr">
         <is>
-          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
+          <t>Provision Azure Key Vault with the soft delete and purge policies enabled to allow retention protection for deleted objects.</t>
         </is>
       </c>
       <c r="D144" s="22" t="n"/>
@@ -7741,7 +7750,7 @@
       <c r="K144" s="23" t="n"/>
       <c r="L144" s="26" t="inlineStr">
         <is>
-          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
+          <t>2ba52752-6944-4008-ae7d-7e4843276d8b</t>
         </is>
       </c>
       <c r="M144" s="26" t="n"/>
@@ -7762,7 +7771,7 @@
       </c>
       <c r="C145" s="22" t="inlineStr">
         <is>
-          <t>Establish an automated process for key and certificate rotation.</t>
+          <t>Follow a least privilege model by limiting authorization to permanently delete keys, secrets, and certificates to specialized custom Azure Active Directory (Azure AD) roles.</t>
         </is>
       </c>
       <c r="D145" s="22" t="n"/>
@@ -7786,7 +7795,7 @@
       <c r="K145" s="23" t="n"/>
       <c r="L145" s="26" t="inlineStr">
         <is>
-          <t>913156a1-2476-4e49-b541-acdce979377b</t>
+          <t>dc055bcf-619e-48a1-9f98-879525d62688</t>
         </is>
       </c>
       <c r="M145" s="26" t="n"/>
@@ -7807,7 +7816,7 @@
       </c>
       <c r="C146" s="22" t="inlineStr">
         <is>
-          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
+          <t>Automate the certificate management and renewal process with public certificate authorities to ease administration.</t>
         </is>
       </c>
       <c r="D146" s="22" t="n"/>
@@ -7831,7 +7840,7 @@
       <c r="K146" s="23" t="n"/>
       <c r="L146" s="26" t="inlineStr">
         <is>
-          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
+          <t>6d70ba6c-97be-4995-8904-83845c986cb2</t>
         </is>
       </c>
       <c r="M146" s="26" t="n"/>
@@ -7852,7 +7861,7 @@
       </c>
       <c r="C147" s="22" t="inlineStr">
         <is>
-          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
+          <t>Establish an automated process for key and certificate rotation.</t>
         </is>
       </c>
       <c r="D147" s="22" t="n"/>
@@ -7869,14 +7878,14 @@
       <c r="G147" s="22" t="n"/>
       <c r="H147" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J147" s="23" t="n"/>
       <c r="K147" s="23" t="n"/>
       <c r="L147" s="26" t="inlineStr">
         <is>
-          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
+          <t>913156a1-2476-4e49-b541-acdce979377b</t>
         </is>
       </c>
       <c r="M147" s="26" t="n"/>
@@ -7897,7 +7906,7 @@
       </c>
       <c r="C148" s="22" t="inlineStr">
         <is>
-          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
+          <t>Enable firewall and virtual network service endpoint or private endpoint on the vault to control access to the key vault.</t>
         </is>
       </c>
       <c r="D148" s="22" t="n"/>
@@ -7921,7 +7930,7 @@
       <c r="K148" s="23" t="n"/>
       <c r="L148" s="26" t="inlineStr">
         <is>
-          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
+          <t>cdb3751a-b2ab-413a-ba6e-55d7d8a2adb1</t>
         </is>
       </c>
       <c r="M148" s="26" t="n"/>
@@ -7942,7 +7951,7 @@
       </c>
       <c r="C149" s="22" t="inlineStr">
         <is>
-          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
+          <t>Use the platform-central Azure Monitor Log Analytics workspace to audit key, certificate, and secret usage within each instance of Key Vault.</t>
         </is>
       </c>
       <c r="D149" s="22" t="n"/>
@@ -7959,14 +7968,14 @@
       <c r="G149" s="22" t="n"/>
       <c r="H149" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/monitor-key-vault</t>
         </is>
       </c>
       <c r="J149" s="23" t="n"/>
       <c r="K149" s="23" t="n"/>
       <c r="L149" s="26" t="inlineStr">
         <is>
-          <t>16183687-a047-47a2-8994-5bda43334f24</t>
+          <t>17d6326a-f625-4ca4-9e56-95f2223ace8c</t>
         </is>
       </c>
       <c r="M149" s="26" t="n"/>
@@ -7987,7 +7996,7 @@
       </c>
       <c r="C150" s="22" t="inlineStr">
         <is>
-          <t>Use an Azure Key Vault per application per environment per region.</t>
+          <t>Delegate Key Vault instantiation and privileged access and use Azure Policy to enforce a consistent compliant configuration.</t>
         </is>
       </c>
       <c r="D150" s="22" t="n"/>
@@ -8011,7 +8020,7 @@
       <c r="K150" s="23" t="n"/>
       <c r="L150" s="26" t="inlineStr">
         <is>
-          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
+          <t>b12308ca-5017-4f15-9e3a-b3693829e7e3</t>
         </is>
       </c>
       <c r="M150" s="26" t="n"/>
@@ -8032,7 +8041,7 @@
       </c>
       <c r="C151" s="22" t="inlineStr">
         <is>
-          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
+          <t>Default to Microsoft-managed keys for principal encryption functionality and use customer-managed keys when required.</t>
         </is>
       </c>
       <c r="D151" s="22" t="n"/>
@@ -8049,14 +8058,14 @@
       <c r="G151" s="22" t="n"/>
       <c r="H151" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
+          <t>https://docs.microsoft.com/azure/security/fundamentals/encryption-atrest</t>
         </is>
       </c>
       <c r="J151" s="23" t="n"/>
       <c r="K151" s="23" t="n"/>
       <c r="L151" s="26" t="inlineStr">
         <is>
-          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
+          <t>16183687-a047-47a2-8994-5bda43334f24</t>
         </is>
       </c>
       <c r="M151" s="26" t="n"/>
@@ -8072,18 +8081,18 @@
       </c>
       <c r="B152" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C152" s="22" t="inlineStr">
         <is>
-          <t>Leverage Azure Policy</t>
+          <t>Use an Azure Key Vault per application per environment per region.</t>
         </is>
       </c>
       <c r="D152" s="22" t="n"/>
       <c r="E152" s="22" t="inlineStr">
         <is>
-          <t>High</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -8094,14 +8103,14 @@
       <c r="G152" s="22" t="n"/>
       <c r="H152" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J152" s="23" t="n"/>
       <c r="K152" s="23" t="n"/>
       <c r="L152" s="26" t="inlineStr">
         <is>
-          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
+          <t>91163418-2ba5-4275-8694-4008be7d7e48</t>
         </is>
       </c>
       <c r="M152" s="26" t="n"/>
@@ -8117,12 +8126,12 @@
       </c>
       <c r="B153" s="22" t="inlineStr">
         <is>
-          <t>Governance</t>
+          <t>Secrets</t>
         </is>
       </c>
       <c r="C153" s="22" t="inlineStr">
         <is>
-          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
+          <t>If you want to bring your own keys, this might not be supported across all considered services. Implement relevant mitigation so that inconsistencies don't hinder desired outcomes. Choose appropriate region pairs and disaster recovery regions that minimize latency.</t>
         </is>
       </c>
       <c r="D153" s="22" t="n"/>
@@ -8139,14 +8148,14 @@
       <c r="G153" s="22" t="n"/>
       <c r="H153" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
+          <t>https://docs.microsoft.com/azure/key-vault/general/best-practices</t>
         </is>
       </c>
       <c r="J153" s="23" t="n"/>
       <c r="K153" s="23" t="n"/>
       <c r="L153" s="26" t="inlineStr">
         <is>
-          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
+          <t>25d62688-6d70-4ba6-a97b-e99519048384</t>
         </is>
       </c>
       <c r="M153" s="26" t="n"/>
@@ -8167,13 +8176,13 @@
       </c>
       <c r="C154" s="22" t="inlineStr">
         <is>
-          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
+          <t>Leverage Azure Policy</t>
         </is>
       </c>
       <c r="D154" s="22" t="n"/>
       <c r="E154" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>High</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -8191,7 +8200,7 @@
       <c r="K154" s="23" t="n"/>
       <c r="L154" s="26" t="inlineStr">
         <is>
-          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
+          <t>5c986cb2-9131-456a-8247-6e49f541acdc</t>
         </is>
       </c>
       <c r="M154" s="26" t="n"/>
@@ -8212,7 +8221,7 @@
       </c>
       <c r="C155" s="22" t="inlineStr">
         <is>
-          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
+          <t>Identify required Azure tags and use the append policy mode to enforce usage.</t>
         </is>
       </c>
       <c r="D155" s="22" t="n"/>
@@ -8229,14 +8238,14 @@
       <c r="G155" s="22" t="n"/>
       <c r="H155" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/azure-best-practices/naming-and-tagging</t>
         </is>
       </c>
       <c r="J155" s="23" t="n"/>
       <c r="K155" s="23" t="n"/>
       <c r="L155" s="26" t="inlineStr">
         <is>
-          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
+          <t>e979377b-cdb3-4751-ab2a-b13ada6e55d7</t>
         </is>
       </c>
       <c r="M155" s="26" t="n"/>
@@ -8257,7 +8266,7 @@
       </c>
       <c r="C156" s="22" t="inlineStr">
         <is>
-          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
+          <t>Map regulatory and compliance requirements to Azure Policy definitions and Azure role assignments.</t>
         </is>
       </c>
       <c r="D156" s="22" t="n"/>
@@ -8281,7 +8290,7 @@
       <c r="K156" s="23" t="n"/>
       <c r="L156" s="26" t="inlineStr">
         <is>
-          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
+          <t>d8a2adb1-17d6-4326-af62-5ca44e5695f2</t>
         </is>
       </c>
       <c r="M156" s="26" t="n"/>
@@ -8302,13 +8311,13 @@
       </c>
       <c r="C157" s="22" t="inlineStr">
         <is>
-          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
+          <t>Establish Azure Policy definitions at the top-level root management group so that they can be assigned at inherited scopes</t>
         </is>
       </c>
       <c r="D157" s="22" t="n"/>
       <c r="E157" s="22" t="inlineStr">
         <is>
-          <t>Low</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
@@ -8326,7 +8335,7 @@
       <c r="K157" s="23" t="n"/>
       <c r="L157" s="26" t="inlineStr">
         <is>
-          <t>43334f24-9116-4341-a2ba-527526944008</t>
+          <t>223ace8c-b123-408c-a501-7f154e3ab369</t>
         </is>
       </c>
       <c r="M157" s="26" t="n"/>
@@ -8347,7 +8356,7 @@
       </c>
       <c r="C158" s="22" t="inlineStr">
         <is>
-          <t>Use built-in policies where possible to minimize operational overhead.</t>
+          <t>Manage policy assignments at the highest appropriate level with exclusions at bottom levels, if required</t>
         </is>
       </c>
       <c r="D158" s="22" t="n"/>
@@ -8371,7 +8380,7 @@
       <c r="K158" s="23" t="n"/>
       <c r="L158" s="26" t="inlineStr">
         <is>
-          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
+          <t>3829e7e3-1618-4368-9a04-77a209945bda</t>
         </is>
       </c>
       <c r="M158" s="26" t="n"/>
@@ -8392,13 +8401,13 @@
       </c>
       <c r="C159" s="22" t="inlineStr">
         <is>
-          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
+          <t>Use Azure Policy to control resource provider registrations at the subscription and/or management group levels</t>
         </is>
       </c>
       <c r="D159" s="22" t="n"/>
       <c r="E159" s="22" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Low</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
@@ -8416,7 +8425,7 @@
       <c r="K159" s="23" t="n"/>
       <c r="L159" s="26" t="inlineStr">
         <is>
-          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
+          <t>43334f24-9116-4341-a2ba-527526944008</t>
         </is>
       </c>
       <c r="M159" s="26" t="n"/>
@@ -8437,7 +8446,7 @@
       </c>
       <c r="C160" s="22" t="inlineStr">
         <is>
-          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
+          <t>Use built-in policies where possible to minimize operational overhead.</t>
         </is>
       </c>
       <c r="D160" s="22" t="n"/>
@@ -8461,7 +8470,7 @@
       <c r="K160" s="24" t="n"/>
       <c r="L160" s="26" t="inlineStr">
         <is>
-          <t>19048384-5c98-46cb-8913-156a12476e49</t>
+          <t>be7d7e48-4327-46d8-adc0-55bcf619e8a1</t>
         </is>
       </c>
       <c r="M160" s="26" t="n"/>
@@ -8482,7 +8491,7 @@
       </c>
       <c r="C161" s="22" t="inlineStr">
         <is>
-          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
+          <t>Assign the built-in Policy Contributor role at a particular scope to enable application-level governance.</t>
         </is>
       </c>
       <c r="D161" s="22" t="n"/>
@@ -8499,14 +8508,14 @@
       <c r="G161" s="22" t="n"/>
       <c r="H161" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J161" s="23" t="n"/>
       <c r="K161" s="23" t="n"/>
       <c r="L161" s="26" t="inlineStr">
         <is>
-          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
+          <t>3f988795-25d6-4268-a6d7-0ba6c97be995</t>
         </is>
       </c>
       <c r="M161" s="26" t="n"/>
@@ -8527,7 +8536,7 @@
       </c>
       <c r="C162" s="22" t="inlineStr">
         <is>
-          <t>Monitor VM security configuration drift via Azure Policy.</t>
+          <t>Limit the number of Azure Policy assignments made at the root management group scope to avoid managing through exclusions at inherited scopes.</t>
         </is>
       </c>
       <c r="D162" s="22" t="n"/>
@@ -8544,14 +8553,14 @@
       <c r="G162" s="22" t="n"/>
       <c r="H162" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/overview</t>
         </is>
       </c>
       <c r="J162" s="23" t="n"/>
       <c r="K162" s="23" t="n"/>
       <c r="L162" s="26" t="inlineStr">
         <is>
-          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
+          <t>19048384-5c98-46cb-8913-156a12476e49</t>
         </is>
       </c>
       <c r="M162" s="26" t="n"/>
@@ -8567,12 +8576,12 @@
       </c>
       <c r="B163" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C163" s="22" t="inlineStr">
         <is>
-          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
+          <t>Use Azure policies to automatically deploy software configurations through VM extensions and enforce a compliant baseline VM configuration.</t>
         </is>
       </c>
       <c r="D163" s="22" t="n"/>
@@ -8589,14 +8598,14 @@
       <c r="G163" s="22" t="n"/>
       <c r="H163" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
+          <t>https://docs.microsoft.com/azure/governance/policy/concepts/guest-configuration</t>
         </is>
       </c>
       <c r="J163" s="23" t="n"/>
       <c r="K163" s="23" t="n"/>
       <c r="L163" s="26" t="inlineStr">
         <is>
-          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
+          <t>f541acdc-e979-4377-acdb-3751ab2ab13a</t>
         </is>
       </c>
       <c r="M163" s="26" t="n"/>
@@ -8612,12 +8621,12 @@
       </c>
       <c r="B164" s="22" t="inlineStr">
         <is>
-          <t>Security</t>
+          <t>Governance</t>
         </is>
       </c>
       <c r="C164" s="22" t="inlineStr">
         <is>
-          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
+          <t>Monitor VM security configuration drift via Azure Policy.</t>
         </is>
       </c>
       <c r="D164" s="22" t="n"/>
@@ -8634,14 +8643,14 @@
       <c r="G164" s="22" t="n"/>
       <c r="H164" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
+          <t>https://docs.microsoft.com/azure/cloud-adoption-framework/ready/landing-zone/design-area/management-operational-compliance#monitoring-for-configuration-drift</t>
         </is>
       </c>
       <c r="J164" s="23" t="n"/>
       <c r="K164" s="23" t="n"/>
       <c r="L164" s="26" t="inlineStr">
         <is>
-          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
+          <t>da6e55d7-d8a2-4adb-817d-6326af625ca4</t>
         </is>
       </c>
       <c r="M164" s="26" t="n"/>
@@ -8662,7 +8671,7 @@
       </c>
       <c r="C165" s="22" t="inlineStr">
         <is>
-          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
+          <t>Use Azure AD reporting capabilities to generate access control audit reports.</t>
         </is>
       </c>
       <c r="D165" s="22" t="n"/>
@@ -8679,14 +8688,14 @@
       <c r="G165" s="22" t="n"/>
       <c r="H165" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/active-directory/reports-monitoring/overview-reports</t>
         </is>
       </c>
       <c r="J165" s="23" t="n"/>
       <c r="K165" s="23" t="n"/>
       <c r="L165" s="26" t="inlineStr">
         <is>
-          <t>09945bda-4333-44f2-9911-634182ba5275</t>
+          <t>4e5695f2-223a-4ce8-ab12-308ca5017f15</t>
         </is>
       </c>
       <c r="M165" s="26" t="n"/>
@@ -8707,7 +8716,7 @@
       </c>
       <c r="C166" s="22" t="inlineStr">
         <is>
-          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
+          <t>Export Azure activity logs to Azure Monitor Logs for long-term data retention. Export to Azure Storage for long-term storage beyond two years, if necessary.</t>
         </is>
       </c>
       <c r="D166" s="22" t="n"/>
@@ -8724,14 +8733,14 @@
       <c r="G166" s="22" t="n"/>
       <c r="H166" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/security-center/</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/logs-data-export?tabs=portal</t>
         </is>
       </c>
       <c r="J166" s="23" t="n"/>
       <c r="K166" s="23" t="n"/>
       <c r="L166" s="26" t="inlineStr">
         <is>
-          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
+          <t>4e3ab369-3829-4e7e-9161-83687a0477a2</t>
         </is>
       </c>
       <c r="M166" s="26" t="n"/>
@@ -8752,7 +8761,7 @@
       </c>
       <c r="C167" s="22" t="inlineStr">
         <is>
-          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
+          <t>Enable Defender for Cloud Standard for all subscriptions.</t>
         </is>
       </c>
       <c r="D167" s="22" t="n"/>
@@ -8769,14 +8778,14 @@
       <c r="G167" s="22" t="n"/>
       <c r="H167" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J167" s="23" t="n"/>
       <c r="K167" s="23" t="n"/>
       <c r="L167" s="26" t="inlineStr">
         <is>
-          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
+          <t>09945bda-4333-44f2-9911-634182ba5275</t>
         </is>
       </c>
       <c r="M167" s="26" t="n"/>
@@ -8797,7 +8806,7 @@
       </c>
       <c r="C168" s="22" t="inlineStr">
         <is>
-          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
+          <t>Monitor base operating system patching drift via Azure Monitor Logs and Defender for Cloud.</t>
         </is>
       </c>
       <c r="D168" s="22" t="n"/>
@@ -8814,14 +8823,14 @@
       <c r="G168" s="22" t="n"/>
       <c r="H168" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://docs.microsoft.com/azure/security-center/</t>
         </is>
       </c>
       <c r="J168" s="23" t="n"/>
       <c r="K168" s="23" t="n"/>
       <c r="L168" s="26" t="inlineStr">
         <is>
-          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
+          <t>15833ee7-ad6c-46d3-9331-65c7acbe44ab</t>
         </is>
       </c>
       <c r="M168" s="26" t="n"/>
@@ -8842,7 +8851,7 @@
       </c>
       <c r="C169" s="22" t="inlineStr">
         <is>
-          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
+          <t>Connect default resource configurations to a centralized Azure Monitor Log Analytics workspace.</t>
         </is>
       </c>
       <c r="D169" s="22" t="n"/>
@@ -8859,14 +8868,14 @@
       <c r="G169" s="22" t="n"/>
       <c r="H169" t="inlineStr">
         <is>
-          <t>https://www.microsoft.com/security/business/zero-trust</t>
+          <t>https://docs.microsoft.com/azure/azure-monitor/logs/design-logs-deployment</t>
         </is>
       </c>
       <c r="J169" s="23" t="n"/>
       <c r="K169" s="23" t="n"/>
       <c r="L169" s="26" t="inlineStr">
         <is>
-          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
+          <t>e5f8d79f-2e87-4768-924c-516775c6ea95</t>
         </is>
       </c>
       <c r="M169" s="26" t="n"/>
@@ -8887,7 +8896,7 @@
       </c>
       <c r="C170" s="22" t="inlineStr">
         <is>
-          <t>Plan how new azure services will be implemented</t>
+          <t>Determine the incident response plan for Azure services before allowing it into production.</t>
         </is>
       </c>
       <c r="D170" s="22" t="n"/>
@@ -8911,7 +8920,7 @@
       <c r="K170" s="23" t="n"/>
       <c r="L170" s="26" t="inlineStr">
         <is>
-          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+          <t>b86ad884-08e3-4727-94b8-75ba18f20459</t>
         </is>
       </c>
       <c r="M170" s="26" t="n"/>
@@ -8932,7 +8941,7 @@
       </c>
       <c r="C171" s="22" t="inlineStr">
         <is>
-          <t>Plan how service request will be fulfilled for Azure services</t>
+          <t>Implement a zero-trust approach for access to the Azure platform, where appropriate.</t>
         </is>
       </c>
       <c r="D171" s="22" t="n"/>
@@ -8949,14 +8958,14 @@
       <c r="G171" s="22" t="n"/>
       <c r="H171" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+          <t>https://www.microsoft.com/security/business/zero-trust</t>
         </is>
       </c>
       <c r="J171" s="23" t="n"/>
       <c r="K171" s="23" t="n"/>
       <c r="L171" s="26" t="inlineStr">
         <is>
-          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+          <t>01365d38-e43f-49cc-ad86-8266abca264f</t>
         </is>
       </c>
       <c r="M171" s="26" t="n"/>
@@ -8965,360 +8974,1080 @@
       <c r="P171" s="26" t="n"/>
     </row>
     <row r="172" ht="16.5" customHeight="1" s="13">
-      <c r="A172" s="22" t="n"/>
-      <c r="B172" s="22" t="n"/>
-      <c r="C172" s="22" t="n"/>
+      <c r="A172" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B172" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C172" s="22" t="inlineStr">
+        <is>
+          <t>Plan how new azure services will be implemented</t>
+        </is>
+      </c>
       <c r="D172" s="22" t="n"/>
-      <c r="E172" s="22" t="n"/>
+      <c r="E172" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G172" s="22" t="n"/>
+      <c r="H172" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J172" s="23" t="n"/>
       <c r="K172" s="23" t="n"/>
-      <c r="L172" s="26" t="n"/>
+      <c r="L172" s="26" t="inlineStr">
+        <is>
+          <t>9a19bf39-c95d-444c-9c89-19ca1f6d5215</t>
+        </is>
+      </c>
       <c r="M172" s="26" t="n"/>
       <c r="N172" s="26" t="n"/>
       <c r="O172" s="26" t="n"/>
       <c r="P172" s="26" t="n"/>
     </row>
     <row r="173" ht="16.5" customHeight="1" s="13">
-      <c r="A173" s="22" t="n"/>
-      <c r="B173" s="22" t="n"/>
-      <c r="C173" s="22" t="n"/>
+      <c r="A173" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B173" s="22" t="inlineStr">
+        <is>
+          <t>Security</t>
+        </is>
+      </c>
+      <c r="C173" s="22" t="inlineStr">
+        <is>
+          <t>Plan how service request will be fulfilled for Azure services</t>
+        </is>
+      </c>
       <c r="D173" s="22" t="n"/>
-      <c r="E173" s="22" t="n"/>
+      <c r="E173" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G173" s="22" t="n"/>
+      <c r="H173" t="inlineStr">
+        <is>
+          <t>https://docs.microsoft.com/security/benchmark/azure/security-control-incident-response</t>
+        </is>
+      </c>
       <c r="J173" s="23" t="n"/>
       <c r="K173" s="23" t="n"/>
-      <c r="L173" s="26" t="n"/>
+      <c r="L173" s="26" t="inlineStr">
+        <is>
+          <t>ae514b93-3d45-485e-8112-9bd7ba012f7b</t>
+        </is>
+      </c>
       <c r="M173" s="26" t="n"/>
       <c r="N173" s="26" t="n"/>
       <c r="O173" s="26" t="n"/>
       <c r="P173" s="26" t="n"/>
     </row>
     <row r="174" ht="16.5" customHeight="1" s="13">
-      <c r="A174" s="22" t="n"/>
-      <c r="B174" s="22" t="n"/>
-      <c r="C174" s="22" t="n"/>
+      <c r="A174" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B174" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C174" s="22" t="inlineStr">
+        <is>
+          <t>Avoid combining Azure Traffic Manager and Azure Front Door.</t>
+        </is>
+      </c>
       <c r="D174" s="22" t="n"/>
-      <c r="E174" s="22" t="n"/>
+      <c r="E174" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G174" s="22" t="n"/>
+      <c r="H174" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#avoid-combining-traffic-manager-and-front-door</t>
+        </is>
+      </c>
       <c r="J174" s="23" t="n"/>
       <c r="K174" s="23" t="n"/>
-      <c r="L174" s="26" t="n"/>
+      <c r="L174" s="26" t="inlineStr">
+        <is>
+          <t>062d5839-4d36-402f-bfa4-02811eb936e9</t>
+        </is>
+      </c>
       <c r="M174" s="26" t="n"/>
       <c r="N174" s="26" t="n"/>
       <c r="O174" s="26" t="n"/>
       <c r="P174" s="26" t="n"/>
     </row>
     <row r="175" ht="16.5" customHeight="1" s="13">
-      <c r="A175" s="22" t="n"/>
-      <c r="B175" s="22" t="n"/>
-      <c r="C175" s="22" t="n"/>
+      <c r="A175" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B175" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C175" s="22" t="inlineStr">
+        <is>
+          <t>Use end-to-end TLS with Azure Front Door. Use TLS for connections from your clients to Front Door, and from Front Door to your origin.</t>
+        </is>
+      </c>
       <c r="D175" s="22" t="n"/>
-      <c r="E175" s="22" t="n"/>
+      <c r="E175" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G175" s="22" t="n"/>
+      <c r="H175" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-end-to-end-tls</t>
+        </is>
+      </c>
       <c r="J175" s="23" t="n"/>
       <c r="K175" s="23" t="n"/>
-      <c r="L175" s="26" t="n"/>
+      <c r="L175" s="26" t="inlineStr">
+        <is>
+          <t>2e30abab-5478-417c-81bf-bf1ad4ed1ed4</t>
+        </is>
+      </c>
       <c r="M175" s="26" t="n"/>
       <c r="N175" s="26" t="n"/>
       <c r="O175" s="26" t="n"/>
       <c r="P175" s="26" t="n"/>
     </row>
     <row r="176" ht="16.5" customHeight="1" s="13">
-      <c r="A176" s="22" t="n"/>
-      <c r="B176" s="22" t="n"/>
-      <c r="C176" s="22" t="n"/>
+      <c r="A176" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B176" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C176" s="22" t="inlineStr">
+        <is>
+          <t>Use HTTP to HTTPS redirection with Azure Front Door. Support older clients by redirecting them to an HTTPS request automatically.</t>
+        </is>
+      </c>
       <c r="D176" s="22" t="n"/>
-      <c r="E176" s="22" t="n"/>
+      <c r="E176" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G176" s="22" t="n"/>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-http-to-https-redirection</t>
+        </is>
+      </c>
       <c r="J176" s="23" t="n"/>
       <c r="K176" s="23" t="n"/>
-      <c r="L176" s="26" t="n"/>
+      <c r="L176" s="26" t="inlineStr">
+        <is>
+          <t>10aa45af-166f-44c4-9f36-b6d592dac2ca</t>
+        </is>
+      </c>
       <c r="M176" s="26" t="n"/>
       <c r="N176" s="26" t="n"/>
       <c r="O176" s="26" t="n"/>
       <c r="P176" s="26" t="n"/>
     </row>
     <row r="177" ht="16.5" customHeight="1" s="13">
-      <c r="A177" s="22" t="n"/>
-      <c r="B177" s="22" t="n"/>
-      <c r="C177" s="22" t="n"/>
+      <c r="A177" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B177" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C177" s="22" t="inlineStr">
+        <is>
+          <t>Use managed TLS certificates with Azure Front Door. Reduce operational cost and risk of outages due to certificate renewals.</t>
+        </is>
+      </c>
       <c r="D177" s="22" t="n"/>
-      <c r="E177" s="22" t="n"/>
+      <c r="E177" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G177" s="22" t="n"/>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-managed-tls-certificates</t>
+        </is>
+      </c>
       <c r="J177" s="23" t="n"/>
       <c r="K177" s="23" t="n"/>
-      <c r="L177" s="26" t="n"/>
+      <c r="L177" s="26" t="inlineStr">
+        <is>
+          <t>af95c92d-d723-4f4a-98d7-8722324efd4d</t>
+        </is>
+      </c>
       <c r="M177" s="26" t="n"/>
       <c r="N177" s="26" t="n"/>
       <c r="O177" s="26" t="n"/>
       <c r="P177" s="26" t="n"/>
     </row>
     <row r="178" ht="16.5" customHeight="1" s="13">
-      <c r="A178" s="22" t="n"/>
-      <c r="B178" s="22" t="n"/>
-      <c r="C178" s="22" t="n"/>
+      <c r="A178" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B178" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C178" s="22" t="inlineStr">
+        <is>
+          <t>If you use customer-managed TLS certificates with Azure Front Door, use the 'Latest' certificate version. Reduce the risk of outages caused by manual certificate renewal.</t>
+        </is>
+      </c>
       <c r="D178" s="22" t="n"/>
-      <c r="E178" s="22" t="n"/>
+      <c r="E178" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G178" s="22" t="n"/>
+      <c r="H178" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-latest-version-for-customer-managed-certificates</t>
+        </is>
+      </c>
       <c r="J178" s="23" t="n"/>
       <c r="K178" s="23" t="n"/>
-      <c r="L178" s="26" t="n"/>
+      <c r="L178" s="26" t="inlineStr">
+        <is>
+          <t>f00a69de-7076-4734-a734-6e4552cad9e1</t>
+        </is>
+      </c>
       <c r="M178" s="26" t="n"/>
       <c r="N178" s="26" t="n"/>
       <c r="O178" s="26" t="n"/>
       <c r="P178" s="26" t="n"/>
     </row>
     <row r="179" ht="16.5" customHeight="1" s="13">
-      <c r="A179" s="22" t="n"/>
-      <c r="B179" s="22" t="n"/>
-      <c r="C179" s="22" t="n"/>
+      <c r="A179" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B179" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C179" s="22" t="inlineStr">
+        <is>
+          <t>Use the same domain name on Azure Front Door and your origin. Mismatched host names can cause subtle bugs.</t>
+        </is>
+      </c>
       <c r="D179" s="22" t="n"/>
-      <c r="E179" s="22" t="n"/>
+      <c r="E179" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G179" s="22" t="n"/>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-the-same-domain-name-on-front-door-and-your-origin</t>
+        </is>
+      </c>
       <c r="J179" s="23" t="n"/>
       <c r="K179" s="23" t="n"/>
-      <c r="L179" s="26" t="n"/>
+      <c r="L179" s="26" t="inlineStr">
+        <is>
+          <t>5efeb96a-003f-4b18-8fcd-b4d84459c2b2</t>
+        </is>
+      </c>
       <c r="M179" s="26" t="n"/>
       <c r="N179" s="26" t="n"/>
       <c r="O179" s="26" t="n"/>
       <c r="P179" s="26" t="n"/>
     </row>
     <row r="180" ht="16.5" customHeight="1" s="13">
-      <c r="A180" s="22" t="n"/>
-      <c r="B180" s="22" t="n"/>
-      <c r="C180" s="22" t="n"/>
+      <c r="A180" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B180" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C180" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF. Protect your application from a range of attacks.</t>
+        </is>
+      </c>
       <c r="D180" s="22" t="n"/>
-      <c r="E180" s="22" t="n"/>
+      <c r="E180" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G180" s="22" t="n"/>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#enable-the-waf</t>
+        </is>
+      </c>
       <c r="J180" s="23" t="n"/>
       <c r="K180" s="23" t="n"/>
-      <c r="L180" s="26" t="n"/>
+      <c r="L180" s="26" t="inlineStr">
+        <is>
+          <t>28b9ee82-b2c7-45aa-bc98-6de6f59a095d</t>
+        </is>
+      </c>
       <c r="M180" s="26" t="n"/>
       <c r="N180" s="26" t="n"/>
       <c r="O180" s="26" t="n"/>
       <c r="P180" s="26" t="n"/>
     </row>
     <row r="181" ht="16.5" customHeight="1" s="13">
-      <c r="A181" s="22" t="n"/>
-      <c r="B181" s="22" t="n"/>
-      <c r="C181" s="22" t="n"/>
+      <c r="A181" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B181" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C181" s="22" t="inlineStr">
+        <is>
+          <t>Disable health probes when there’s only one origin in an Azure Front Door origin group.</t>
+        </is>
+      </c>
       <c r="D181" s="22" t="n"/>
-      <c r="E181" s="22" t="n"/>
+      <c r="E181" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G181" s="22" t="n"/>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#disable-health-probes-when-theres-only-one-origin-in-an-origin-group</t>
+        </is>
+      </c>
       <c r="J181" s="23" t="n"/>
       <c r="K181" s="23" t="n"/>
-      <c r="L181" s="26" t="n"/>
+      <c r="L181" s="26" t="inlineStr">
+        <is>
+          <t>0b5a380c-4bfb-47bc-b1d7-dcfef363a61b</t>
+        </is>
+      </c>
       <c r="M181" s="26" t="n"/>
       <c r="N181" s="26" t="n"/>
       <c r="O181" s="26" t="n"/>
       <c r="P181" s="26" t="n"/>
     </row>
     <row r="182" ht="16.5" customHeight="1" s="13">
-      <c r="A182" s="22" t="n"/>
-      <c r="B182" s="22" t="n"/>
-      <c r="C182" s="22" t="n"/>
+      <c r="A182" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B182" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C182" s="22" t="inlineStr">
+        <is>
+          <t>Select good health probe endpoints for Azure Front Door. Consider building health endpoints that check all of your application's dependencies.</t>
+        </is>
+      </c>
       <c r="D182" s="22" t="n"/>
-      <c r="E182" s="22" t="n"/>
+      <c r="E182" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G182" s="22" t="n"/>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#select-good-health-probe-endpoints</t>
+        </is>
+      </c>
       <c r="J182" s="23" t="n"/>
       <c r="K182" s="23" t="n"/>
-      <c r="L182" s="26" t="n"/>
+      <c r="L182" s="26" t="inlineStr">
+        <is>
+          <t>5567048e-e5d7-4206-9c55-b5ed45d2cc0c</t>
+        </is>
+      </c>
       <c r="M182" s="26" t="n"/>
       <c r="N182" s="26" t="n"/>
       <c r="O182" s="26" t="n"/>
       <c r="P182" s="26" t="n"/>
     </row>
     <row r="183" ht="16.5" customHeight="1" s="13">
-      <c r="A183" s="22" t="n"/>
-      <c r="B183" s="22" t="n"/>
-      <c r="C183" s="22" t="n"/>
+      <c r="A183" s="22" t="inlineStr">
+        <is>
+          <t>Network Topology and Connectivity</t>
+        </is>
+      </c>
+      <c r="B183" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C183" s="22" t="inlineStr">
+        <is>
+          <t>Use HEAD health probes with Azure Front Door. Reduce the traffic that Front Door sends to your application.</t>
+        </is>
+      </c>
       <c r="D183" s="22" t="n"/>
-      <c r="E183" s="22" t="n"/>
+      <c r="E183" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G183" s="22" t="n"/>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/frontdoor/best-practices#use-head-health-probes</t>
+        </is>
+      </c>
       <c r="J183" s="23" t="n"/>
       <c r="K183" s="23" t="n"/>
-      <c r="L183" s="26" t="n"/>
+      <c r="L183" s="26" t="inlineStr">
+        <is>
+          <t>a13f72f3-8f5c-4864-95e5-75bf37fbbeb1</t>
+        </is>
+      </c>
       <c r="M183" s="26" t="n"/>
       <c r="N183" s="26" t="n"/>
       <c r="O183" s="26" t="n"/>
       <c r="P183" s="26" t="n"/>
     </row>
     <row r="184" ht="16.5" customHeight="1" s="13">
-      <c r="A184" s="22" t="n"/>
-      <c r="B184" s="22" t="n"/>
-      <c r="C184" s="22" t="n"/>
+      <c r="A184" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B184" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C184" s="22" t="inlineStr">
+        <is>
+          <t>Tune the Azure Front Door WAF for your workload. Reduce false positive detections.</t>
+        </is>
+      </c>
       <c r="D184" s="22" t="n"/>
-      <c r="E184" s="22" t="n"/>
+      <c r="E184" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G184" s="22" t="n"/>
+      <c r="H184" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#tune-your-waf</t>
+        </is>
+      </c>
       <c r="J184" s="23" t="n"/>
       <c r="K184" s="23" t="n"/>
-      <c r="L184" s="26" t="n"/>
+      <c r="L184" s="26" t="inlineStr">
+        <is>
+          <t>2902d8cc-1b0c-4495-afad-624ab70f7bd6</t>
+        </is>
+      </c>
       <c r="M184" s="26" t="n"/>
       <c r="N184" s="26" t="n"/>
       <c r="O184" s="26" t="n"/>
       <c r="P184" s="26" t="n"/>
     </row>
     <row r="185" ht="16.5" customHeight="1" s="13">
-      <c r="A185" s="22" t="n"/>
-      <c r="B185" s="22" t="n"/>
-      <c r="C185" s="22" t="n"/>
+      <c r="A185" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B185" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C185" s="22" t="inlineStr">
+        <is>
+          <t>Use prevention mode with the Azure Front Door WAF. Prevention mode ensures that the WAF blocks malicious requests.</t>
+        </is>
+      </c>
       <c r="D185" s="22" t="n"/>
-      <c r="E185" s="22" t="n"/>
+      <c r="E185" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G185" s="22" t="n"/>
+      <c r="H185" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-prevention-mode</t>
+        </is>
+      </c>
       <c r="J185" s="23" t="n"/>
       <c r="K185" s="23" t="n"/>
-      <c r="L185" s="26" t="n"/>
+      <c r="L185" s="26" t="inlineStr">
+        <is>
+          <t>17ba124b-127d-42b6-9322-388d5b2bbcfc</t>
+        </is>
+      </c>
       <c r="M185" s="26" t="n"/>
       <c r="N185" s="26" t="n"/>
       <c r="O185" s="26" t="n"/>
       <c r="P185" s="26" t="n"/>
     </row>
     <row r="186" ht="16.5" customHeight="1" s="13">
-      <c r="A186" s="22" t="n"/>
-      <c r="B186" s="22" t="n"/>
-      <c r="C186" s="22" t="n"/>
+      <c r="A186" s="22" t="inlineStr">
+        <is>
+          <t>Operations</t>
+        </is>
+      </c>
+      <c r="B186" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C186" s="22" t="inlineStr">
+        <is>
+          <t>Define your Azure Front Door WAF configuration as code. By using code, you can more easily adopt new ruleset versions and gain additional protection.</t>
+        </is>
+      </c>
       <c r="D186" s="22" t="n"/>
-      <c r="E186" s="22" t="n"/>
+      <c r="E186" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G186" s="22" t="n"/>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#define-your-waf-configuration-as-code</t>
+        </is>
+      </c>
       <c r="J186" s="23" t="n"/>
       <c r="K186" s="23" t="n"/>
-      <c r="L186" s="26" t="n"/>
+      <c r="L186" s="26" t="inlineStr">
+        <is>
+          <t>189ea962-3969-4863-8f5a-5ad808c2cf4b</t>
+        </is>
+      </c>
       <c r="M186" s="26" t="n"/>
       <c r="N186" s="26" t="n"/>
       <c r="O186" s="26" t="n"/>
       <c r="P186" s="26" t="n"/>
     </row>
     <row r="187" ht="16.5" customHeight="1" s="13">
-      <c r="A187" s="22" t="n"/>
-      <c r="B187" s="22" t="n"/>
-      <c r="C187" s="22" t="n"/>
+      <c r="A187" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B187" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C187" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF default rule sets. The default rule sets detect and block common attacks.</t>
+        </is>
+      </c>
       <c r="D187" s="22" t="n"/>
-      <c r="E187" s="22" t="n"/>
+      <c r="E187" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G187" s="22" t="n"/>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-default-rule-sets</t>
+        </is>
+      </c>
       <c r="J187" s="23" t="n"/>
       <c r="K187" s="23" t="n"/>
-      <c r="L187" s="26" t="n"/>
+      <c r="L187" s="26" t="inlineStr">
+        <is>
+          <t>49a98f2b-ec22-4a87-9415-6a10b00d6555</t>
+        </is>
+      </c>
       <c r="M187" s="26" t="n"/>
       <c r="N187" s="26" t="n"/>
       <c r="O187" s="26" t="n"/>
       <c r="P187" s="26" t="n"/>
     </row>
     <row r="188" ht="16.5" customHeight="1" s="13">
-      <c r="A188" s="22" t="n"/>
-      <c r="B188" s="22" t="n"/>
-      <c r="C188" s="22" t="n"/>
+      <c r="A188" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B188" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C188" s="22" t="inlineStr">
+        <is>
+          <t>Enable the Azure Front Door WAF bot management rules. The bot rules detect good and bad bots.</t>
+        </is>
+      </c>
       <c r="D188" s="22" t="n"/>
-      <c r="E188" s="22" t="n"/>
+      <c r="E188" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G188" s="22" t="n"/>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#enable-bot-management-rules</t>
+        </is>
+      </c>
       <c r="J188" s="23" t="n"/>
       <c r="K188" s="23" t="n"/>
-      <c r="L188" s="26" t="n"/>
+      <c r="L188" s="26" t="inlineStr">
+        <is>
+          <t>147a13d4-2a2f-4824-a524-f5855b52b946</t>
+        </is>
+      </c>
       <c r="M188" s="26" t="n"/>
       <c r="N188" s="26" t="n"/>
       <c r="O188" s="26" t="n"/>
       <c r="P188" s="26" t="n"/>
     </row>
     <row r="189" ht="16.5" customHeight="1" s="13">
-      <c r="A189" s="22" t="n"/>
-      <c r="B189" s="22" t="n"/>
-      <c r="C189" s="22" t="n"/>
+      <c r="A189" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B189" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C189" s="22" t="inlineStr">
+        <is>
+          <t>Use the latest Azure Front Door WAF ruleset versions. Ruleset updates are regularly updated to take account of the current threat landscape.</t>
+        </is>
+      </c>
       <c r="D189" s="22" t="n"/>
-      <c r="E189" s="22" t="n"/>
+      <c r="E189" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G189" s="22" t="n"/>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-the-latest-ruleset-versions</t>
+        </is>
+      </c>
       <c r="J189" s="23" t="n"/>
       <c r="K189" s="23" t="n"/>
-      <c r="L189" s="26" t="n"/>
+      <c r="L189" s="26" t="inlineStr">
+        <is>
+          <t>d7dcdcb9-0d99-44b9-baab-ac7570ede79a</t>
+        </is>
+      </c>
       <c r="M189" s="26" t="n"/>
       <c r="N189" s="26" t="n"/>
       <c r="O189" s="26" t="n"/>
       <c r="P189" s="26" t="n"/>
     </row>
     <row r="190" ht="16.5" customHeight="1" s="13">
-      <c r="A190" s="22" t="n"/>
-      <c r="B190" s="22" t="n"/>
-      <c r="C190" s="22" t="n"/>
+      <c r="A190" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B190" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C190" s="22" t="inlineStr">
+        <is>
+          <t>Add rate limiting to the Azure Front Door WAF. Rate limiting blocks clients accidentally or intentionally sending large amounts of traffic in a short period of time.</t>
+        </is>
+      </c>
       <c r="D190" s="22" t="n"/>
-      <c r="E190" s="22" t="n"/>
+      <c r="E190" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G190" s="22" t="n"/>
+      <c r="H190" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-rate-limiting</t>
+        </is>
+      </c>
       <c r="J190" s="23" t="n"/>
       <c r="K190" s="23" t="n"/>
-      <c r="L190" s="26" t="n"/>
+      <c r="L190" s="26" t="inlineStr">
+        <is>
+          <t>b9620385-1cde-418f-914b-a84a06982ffc</t>
+        </is>
+      </c>
       <c r="M190" s="26" t="n"/>
       <c r="N190" s="26" t="n"/>
       <c r="O190" s="26" t="n"/>
       <c r="P190" s="26" t="n"/>
     </row>
     <row r="191" ht="16.5" customHeight="1" s="13">
-      <c r="A191" s="22" t="n"/>
-      <c r="B191" s="22" t="n"/>
-      <c r="C191" s="22" t="n"/>
+      <c r="A191" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B191" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C191" s="22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Use a high threshold for Azure Front Door WAF rate limits. High rate limit thresholds avoid blocking legitimate traffic, while still providing protection against extremely high numbers of requests that might overwhelm your infrastructure. </t>
+        </is>
+      </c>
       <c r="D191" s="22" t="n"/>
-      <c r="E191" s="22" t="n"/>
+      <c r="E191" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G191" s="22" t="n"/>
+      <c r="H191" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#use-a-high-threshold-for-rate-limits</t>
+        </is>
+      </c>
       <c r="J191" s="23" t="n"/>
       <c r="K191" s="23" t="n"/>
-      <c r="L191" s="26" t="n"/>
+      <c r="L191" s="26" t="inlineStr">
+        <is>
+          <t>6dc36c52-0124-4ffe-9eaf-23ec1282dedb</t>
+        </is>
+      </c>
       <c r="M191" s="26" t="n"/>
       <c r="N191" s="26" t="n"/>
       <c r="O191" s="26" t="n"/>
       <c r="P191" s="26" t="n"/>
     </row>
     <row r="192" ht="16.5" customHeight="1" s="13">
-      <c r="A192" s="22" t="n"/>
-      <c r="B192" s="22" t="n"/>
-      <c r="C192" s="22" t="n"/>
+      <c r="A192" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B192" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C192" s="22" t="inlineStr">
+        <is>
+          <t>Geo-filter traffic by using the Azure Front Door WAF. Allow traffic only from expected regions, and block traffic from other regions.</t>
+        </is>
+      </c>
       <c r="D192" s="22" t="n"/>
-      <c r="E192" s="22" t="n"/>
+      <c r="E192" s="22" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G192" s="22" t="n"/>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#geo-filter-traffic</t>
+        </is>
+      </c>
       <c r="J192" s="23" t="n"/>
       <c r="K192" s="23" t="n"/>
-      <c r="L192" s="26" t="n"/>
+      <c r="L192" s="26" t="inlineStr">
+        <is>
+          <t>388a3d0e-0a43-4367-90b2-3dd2aeece5ee</t>
+        </is>
+      </c>
       <c r="M192" s="26" t="n"/>
       <c r="N192" s="26" t="n"/>
       <c r="O192" s="26" t="n"/>
       <c r="P192" s="26" t="n"/>
     </row>
     <row r="193" ht="16.5" customHeight="1" s="13">
-      <c r="A193" s="22" t="n"/>
-      <c r="B193" s="22" t="n"/>
-      <c r="C193" s="22" t="n"/>
+      <c r="A193" s="22" t="inlineStr">
+        <is>
+          <t>Security, Governance and Compliance</t>
+        </is>
+      </c>
+      <c r="B193" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C193" s="22" t="inlineStr">
+        <is>
+          <t>Specify the unknown (ZZ) location when geo-filtering traffic with the Azure Front Door WAF. Avoid accidentally blocking legitimate requests when IP addresses can't be geo-matched.</t>
+        </is>
+      </c>
       <c r="D193" s="22" t="n"/>
-      <c r="E193" s="22" t="n"/>
+      <c r="E193" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G193" s="22" t="n"/>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#specify-the-unknown-zz-location</t>
+        </is>
+      </c>
       <c r="J193" s="23" t="n"/>
       <c r="K193" s="23" t="n"/>
-      <c r="L193" s="26" t="n"/>
+      <c r="L193" s="26" t="inlineStr">
+        <is>
+          <t>00acd8a9-6975-414f-8491-2be6309893b8</t>
+        </is>
+      </c>
       <c r="M193" s="26" t="n"/>
       <c r="N193" s="26" t="n"/>
       <c r="O193" s="26" t="n"/>
       <c r="P193" s="26" t="n"/>
     </row>
     <row r="194" ht="16.5" customHeight="1" s="13">
-      <c r="A194" s="22" t="n"/>
-      <c r="B194" s="22" t="n"/>
-      <c r="C194" s="22" t="n"/>
+      <c r="A194" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B194" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C194" s="22" t="inlineStr">
+        <is>
+          <t>Add diagnostic settings to save your Azure Front Door WAF's logs. Regularly review the logs to check for attacks and for false positive detections.</t>
+        </is>
+      </c>
       <c r="D194" s="22" t="n"/>
-      <c r="E194" s="22" t="n"/>
+      <c r="E194" s="22" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G194" s="22" t="n"/>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#add-diagnostic-settings-to-save-your-wafs-logs</t>
+        </is>
+      </c>
       <c r="J194" s="23" t="n"/>
       <c r="K194" s="23" t="n"/>
-      <c r="L194" s="26" t="n"/>
+      <c r="L194" s="26" t="inlineStr">
+        <is>
+          <t>89cc5e11-aa4d-4c3b-893d-feb99215266a</t>
+        </is>
+      </c>
       <c r="M194" s="26" t="n"/>
       <c r="N194" s="26" t="n"/>
       <c r="O194" s="26" t="n"/>
       <c r="P194" s="26" t="n"/>
     </row>
     <row r="195" ht="16.5" customHeight="1" s="13">
-      <c r="A195" s="22" t="n"/>
-      <c r="B195" s="22" t="n"/>
-      <c r="C195" s="22" t="n"/>
+      <c r="A195" s="22" t="inlineStr">
+        <is>
+          <t>Management and Monitoring</t>
+        </is>
+      </c>
+      <c r="B195" s="22" t="inlineStr">
+        <is>
+          <t>Front Door</t>
+        </is>
+      </c>
+      <c r="C195" s="22" t="inlineStr">
+        <is>
+          <t>Send Azure Front Door logs to Microsoft Sentinel. Detect attacks and integrate Front Door telemetry into your overall Azure environment.</t>
+        </is>
+      </c>
       <c r="D195" s="22" t="n"/>
-      <c r="E195" s="22" t="n"/>
+      <c r="E195" s="22" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>Not verified</t>
+        </is>
+      </c>
       <c r="G195" s="22" t="n"/>
+      <c r="H195" t="inlineStr">
+        <is>
+          <t>https://learn.microsoft.com/azure/web-application-firewall/afds/waf-front-door-best-practices#send-logs-to-microsoft-sentinel</t>
+        </is>
+      </c>
       <c r="J195" s="23" t="n"/>
       <c r="K195" s="23" t="n"/>
-      <c r="L195" s="26" t="n"/>
+      <c r="L195" s="26" t="inlineStr">
+        <is>
+          <t>7f408960-c626-44cb-a018-347c8d790cdf</t>
+        </is>
+      </c>
       <c r="M195" s="26" t="n"/>
       <c r="N195" s="26" t="n"/>
       <c r="O195" s="26" t="n"/>
@@ -11016,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="6">
+  <dataValidations count="8">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11033,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
   </dataValidations>

--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -2285,7 +2285,7 @@
       </c>
       <c r="C32" s="22" t="inlineStr">
         <is>
-          <t>Ensure that all subscription owners and IT core team are aware of subscription support limitations as part of workload design sessions.</t>
+          <t>Ensure that all subscription owners and IT core team are aware of subscription resource limitations as part of workload design sessions.</t>
         </is>
       </c>
       <c r="D32" s="22" t="n"/>
@@ -4339,7 +4339,7 @@
       <c r="G74" s="22" t="n"/>
       <c r="H74" s="16" t="inlineStr">
         <is>
-          <t>https://docs.microsoft.com/azure/expressroute/expressroute-routing</t>
+          <t>https://learn.microsoft.com/azure/expressroute/about-fastpath</t>
         </is>
       </c>
       <c r="I74" s="16" t="inlineStr">
@@ -5472,7 +5472,7 @@
       </c>
       <c r="C97" s="22" t="inlineStr">
         <is>
-          <t>Use Azure DDoS Protection Standard protection plans to help protect all public endpoints hosted within the virtual networks.</t>
+          <t>Use Azure DDoS Network or IP Protection plans to help protect Public IP Addresses endpoints within the virtual networks.</t>
         </is>
       </c>
       <c r="D97" s="22" t="n"/>
@@ -5722,7 +5722,7 @@
       </c>
       <c r="C102" s="22" t="inlineStr">
         <is>
-          <t>Use a DDoS standard protection plan for all public IP addresses in a landing zone.</t>
+          <t>Use a DDoS Network or IP protection plans for all Public IP addresses in application landing zones.</t>
         </is>
       </c>
       <c r="D102" s="22" t="n"/>
@@ -7456,7 +7456,7 @@
       </c>
       <c r="C138" s="22" t="inlineStr">
         <is>
-          <t>Employ Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
+          <t>Use Azure Site Recovery for Azure-to-Azure Virtual Machines disaster recovery scenarios. This enables you to replicate workloads across regions.</t>
         </is>
       </c>
       <c r="D138" s="22" t="n"/>
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
+  <dataValidations count="10">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">

--- a/spreadsheet/review_checklist_empty.xlsx
+++ b/spreadsheet/review_checklist_empty.xlsx
@@ -11745,7 +11745,7 @@
       <formula>($A58&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="10">
+  <dataValidations count="12">
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
@@ -11762,6 +11762,12 @@
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F172" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+      <formula1>=Values!$B$2:$B$6</formula1>
+    </dataValidation>
+    <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>=Values!$B$2:$B$6</formula1>
     </dataValidation>
     <dataValidation sqref="F8:F196" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
